--- a/datasheets/Amiot_et_al_2007.xlsx
+++ b/datasheets/Amiot_et_al_2007.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="136">
   <si>
     <t xml:space="preserve">Collection number</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">Taxon</t>
   </si>
   <si>
+    <t xml:space="preserve">Family</t>
+  </si>
+  <si>
     <t xml:space="preserve">Animal</t>
   </si>
   <si>
@@ -130,6 +133,9 @@
     <t xml:space="preserve">Crocodylus suchus</t>
   </si>
   <si>
+    <t xml:space="preserve">Crocodylidae</t>
+  </si>
+  <si>
     <t xml:space="preserve">crocodilian</t>
   </si>
   <si>
@@ -232,6 +238,9 @@
     <t xml:space="preserve">Alligator mississipiensis</t>
   </si>
   <si>
+    <t xml:space="preserve">Alligatoridae</t>
+  </si>
+  <si>
     <t xml:space="preserve">CR015</t>
   </si>
   <si>
@@ -247,6 +256,9 @@
     <t xml:space="preserve">Tomistoma schlegelii</t>
   </si>
   <si>
+    <t xml:space="preserve">Gavialidae</t>
+  </si>
+  <si>
     <t xml:space="preserve">CR018</t>
   </si>
   <si>
@@ -358,6 +370,9 @@
     <t xml:space="preserve">OIPC, Stoskopf et al. (2001)</t>
   </si>
   <si>
+    <t xml:space="preserve">Stoskopf et al. (2001)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Northern Florida</t>
   </si>
   <si>
@@ -379,12 +394,18 @@
     <t xml:space="preserve">GNIR, Lécuyer et al. (2003)</t>
   </si>
   <si>
+    <t xml:space="preserve">Lécuyer et al. (2003)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Florida</t>
   </si>
   <si>
     <t xml:space="preserve">OIPC, Lécuyer et al. (1999)</t>
   </si>
   <si>
+    <t xml:space="preserve">Lécuyer et al. (1999)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Crocodylus rhombifer</t>
   </si>
   <si>
@@ -404,6 +425,9 @@
   </si>
   <si>
     <t xml:space="preserve">OIPC, Kolodny et al. (1996)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolodny et al. (1996)</t>
   </si>
 </sst>
 </file>
@@ -571,33 +595,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH43"/>
+  <dimension ref="A1:AI43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AH1" activeCellId="0" sqref="AH1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AI44" activeCellId="0" sqref="AI44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="36.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="26.84"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.48"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="14" style="1" width="11.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="14.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="18" style="1" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="47.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="25.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="15.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="35" style="1" width="11.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="24.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="36.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="26.84"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14.48"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="15" style="1" width="11.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="14.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="19" style="1" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="47.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="25.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="18.95"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="36" style="1" width="11.81"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -634,7 +658,7 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -702,4340 +726,4469 @@
       </c>
       <c r="AH1" s="4" t="s">
         <v>33</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="6" t="n">
         <v>13.8</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5" t="n">
+      <c r="L2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5" t="n">
         <v>-7.3</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>45.767</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="P2" s="1" t="n">
         <v>4.835</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="Q2" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="R2" s="1" t="n">
         <v>-7.4</v>
       </c>
-      <c r="R2" s="1" t="n">
-        <f aca="false">MIN(T2:AE2)</f>
+      <c r="S2" s="1" t="n">
+        <f aca="false">MIN(U2:AF2)</f>
         <v>-11.4</v>
       </c>
-      <c r="S2" s="1" t="n">
-        <f aca="false">MAX(T2:AE2)</f>
+      <c r="T2" s="1" t="n">
+        <f aca="false">MAX(U2:AF2)</f>
         <v>-2.8</v>
       </c>
-      <c r="T2" s="1" t="n">
+      <c r="U2" s="1" t="n">
         <v>-11.4</v>
       </c>
-      <c r="U2" s="1" t="n">
+      <c r="V2" s="1" t="n">
         <v>-11.2</v>
       </c>
-      <c r="V2" s="1" t="n">
+      <c r="W2" s="1" t="n">
         <v>-9.9</v>
       </c>
-      <c r="W2" s="1" t="n">
+      <c r="X2" s="1" t="n">
         <v>-7.7</v>
       </c>
-      <c r="X2" s="1" t="n">
+      <c r="Y2" s="1" t="n">
         <v>-5.4</v>
       </c>
-      <c r="Y2" s="1" t="n">
+      <c r="Z2" s="1" t="n">
         <v>-4</v>
       </c>
-      <c r="Z2" s="1" t="n">
+      <c r="AA2" s="1" t="n">
         <v>-2.8</v>
       </c>
-      <c r="AA2" s="1" t="n">
+      <c r="AB2" s="1" t="n">
         <v>-3.4</v>
       </c>
-      <c r="AB2" s="1" t="n">
+      <c r="AC2" s="1" t="n">
         <v>-4.3</v>
       </c>
-      <c r="AC2" s="1" t="n">
+      <c r="AD2" s="1" t="n">
         <v>-6.6</v>
       </c>
-      <c r="AD2" s="1" t="n">
+      <c r="AE2" s="1" t="n">
         <v>-9.2</v>
       </c>
-      <c r="AE2" s="1" t="n">
+      <c r="AF2" s="1" t="n">
         <v>-10.5</v>
       </c>
-      <c r="AF2" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="AG2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="6" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5" t="n">
+        <v>-7.3</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>45.767</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>4.835</v>
+      </c>
+      <c r="Q3" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>-7.4</v>
+      </c>
+      <c r="S3" s="1" t="n">
+        <f aca="false">MIN(U3:AF3)</f>
+        <v>-11.4</v>
+      </c>
+      <c r="T3" s="1" t="n">
+        <f aca="false">MAX(U3:AF3)</f>
+        <v>-2.8</v>
+      </c>
+      <c r="U3" s="1" t="n">
+        <v>-11.4</v>
+      </c>
+      <c r="V3" s="1" t="n">
+        <v>-11.2</v>
+      </c>
+      <c r="W3" s="1" t="n">
+        <v>-9.9</v>
+      </c>
+      <c r="X3" s="1" t="n">
+        <v>-7.7</v>
+      </c>
+      <c r="Y3" s="1" t="n">
+        <v>-5.4</v>
+      </c>
+      <c r="Z3" s="1" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AA3" s="1" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="AB3" s="1" t="n">
+        <v>-3.4</v>
+      </c>
+      <c r="AC3" s="1" t="n">
+        <v>-4.3</v>
+      </c>
+      <c r="AD3" s="1" t="n">
+        <v>-6.6</v>
+      </c>
+      <c r="AE3" s="1" t="n">
+        <v>-9.2</v>
+      </c>
+      <c r="AF3" s="1" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="6" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5" t="n">
-        <v>-7.3</v>
-      </c>
-      <c r="N3" s="1" t="n">
-        <v>45.767</v>
-      </c>
-      <c r="O3" s="1" t="n">
-        <v>4.835</v>
-      </c>
-      <c r="P3" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="Q3" s="1" t="n">
-        <v>-7.4</v>
-      </c>
-      <c r="R3" s="1" t="n">
-        <f aca="false">MIN(T3:AE3)</f>
-        <v>-11.4</v>
-      </c>
-      <c r="S3" s="1" t="n">
-        <f aca="false">MAX(T3:AE3)</f>
-        <v>-2.8</v>
-      </c>
-      <c r="T3" s="1" t="n">
-        <v>-11.4</v>
-      </c>
-      <c r="U3" s="1" t="n">
-        <v>-11.2</v>
-      </c>
-      <c r="V3" s="1" t="n">
-        <v>-9.9</v>
-      </c>
-      <c r="W3" s="1" t="n">
-        <v>-7.7</v>
-      </c>
-      <c r="X3" s="1" t="n">
-        <v>-5.4</v>
-      </c>
-      <c r="Y3" s="1" t="n">
-        <v>-4</v>
-      </c>
-      <c r="Z3" s="1" t="n">
-        <v>-2.8</v>
-      </c>
-      <c r="AA3" s="1" t="n">
-        <v>-3.4</v>
-      </c>
-      <c r="AB3" s="1" t="n">
-        <v>-4.3</v>
-      </c>
-      <c r="AC3" s="1" t="n">
-        <v>-6.6</v>
-      </c>
-      <c r="AD3" s="1" t="n">
-        <v>-9.2</v>
-      </c>
-      <c r="AE3" s="1" t="n">
-        <v>-10.5</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>46</v>
+      <c r="AI3" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="6" t="n">
         <v>14.9</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5" t="n">
+      <c r="L4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5" t="n">
         <v>-5.6</v>
       </c>
-      <c r="N4" s="1" t="n">
+      <c r="O4" s="1" t="n">
         <v>33.819</v>
       </c>
-      <c r="O4" s="1" t="n">
+      <c r="P4" s="1" t="n">
         <v>11.043</v>
       </c>
-      <c r="P4" s="1" t="n">
+      <c r="Q4" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="Q4" s="1" t="n">
+      <c r="R4" s="1" t="n">
         <v>-3.9</v>
       </c>
-      <c r="R4" s="1" t="n">
-        <f aca="false">MIN(T4:AE4)</f>
+      <c r="S4" s="1" t="n">
+        <f aca="false">MIN(U4:AF4)</f>
         <v>-6.5</v>
       </c>
-      <c r="S4" s="1" t="n">
-        <f aca="false">MAX(T4:AE4)</f>
+      <c r="T4" s="1" t="n">
+        <f aca="false">MAX(U4:AF4)</f>
         <v>1.1</v>
       </c>
-      <c r="T4" s="1" t="n">
+      <c r="U4" s="1" t="n">
         <v>-6.5</v>
-      </c>
-      <c r="U4" s="1" t="n">
-        <v>-5.3</v>
       </c>
       <c r="V4" s="1" t="n">
         <v>-5.3</v>
       </c>
       <c r="W4" s="1" t="n">
+        <v>-5.3</v>
+      </c>
+      <c r="X4" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="X4" s="1" t="n">
+      <c r="Y4" s="1" t="n">
         <v>-0.7</v>
       </c>
-      <c r="Y4" s="1" t="n">
+      <c r="Z4" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="Z4" s="1" t="n">
+      <c r="AA4" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="AA4" s="1" t="n">
+      <c r="AB4" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="AB4" s="1" t="n">
+      <c r="AC4" s="1" t="n">
         <v>-1.6</v>
       </c>
-      <c r="AC4" s="1" t="n">
+      <c r="AD4" s="1" t="n">
         <v>-1.7</v>
       </c>
-      <c r="AD4" s="1" t="n">
+      <c r="AE4" s="1" t="n">
         <v>-3.8</v>
       </c>
-      <c r="AE4" s="1" t="n">
+      <c r="AF4" s="1" t="n">
         <v>-5.7</v>
       </c>
-      <c r="AF4" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="AG4" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="H5" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="6" t="n">
         <v>14.7</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5" t="n">
+      <c r="L5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5" t="n">
         <v>-5.6</v>
       </c>
-      <c r="N5" s="1" t="n">
+      <c r="O5" s="1" t="n">
         <v>33.819</v>
       </c>
-      <c r="O5" s="1" t="n">
+      <c r="P5" s="1" t="n">
         <v>11.043</v>
       </c>
-      <c r="P5" s="1" t="n">
+      <c r="Q5" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="Q5" s="1" t="n">
+      <c r="R5" s="1" t="n">
         <v>-3.9</v>
       </c>
-      <c r="R5" s="1" t="n">
-        <f aca="false">MIN(T5:AE5)</f>
+      <c r="S5" s="1" t="n">
+        <f aca="false">MIN(U5:AF5)</f>
         <v>-6.5</v>
       </c>
-      <c r="S5" s="1" t="n">
-        <f aca="false">MAX(T5:AE5)</f>
+      <c r="T5" s="1" t="n">
+        <f aca="false">MAX(U5:AF5)</f>
         <v>1.1</v>
       </c>
-      <c r="T5" s="1" t="n">
+      <c r="U5" s="1" t="n">
         <v>-6.5</v>
-      </c>
-      <c r="U5" s="1" t="n">
-        <v>-5.3</v>
       </c>
       <c r="V5" s="1" t="n">
         <v>-5.3</v>
       </c>
       <c r="W5" s="1" t="n">
+        <v>-5.3</v>
+      </c>
+      <c r="X5" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="X5" s="1" t="n">
+      <c r="Y5" s="1" t="n">
         <v>-0.7</v>
       </c>
-      <c r="Y5" s="1" t="n">
+      <c r="Z5" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="Z5" s="1" t="n">
+      <c r="AA5" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="AA5" s="1" t="n">
+      <c r="AB5" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="AB5" s="1" t="n">
+      <c r="AC5" s="1" t="n">
         <v>-1.6</v>
       </c>
-      <c r="AC5" s="1" t="n">
+      <c r="AD5" s="1" t="n">
         <v>-1.7</v>
       </c>
-      <c r="AD5" s="1" t="n">
+      <c r="AE5" s="1" t="n">
         <v>-3.8</v>
       </c>
-      <c r="AE5" s="1" t="n">
+      <c r="AF5" s="1" t="n">
         <v>-5.7</v>
       </c>
-      <c r="AF5" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="AG5" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="6" t="n">
         <v>19.4</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5" t="n">
+      <c r="L6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5" t="n">
         <v>-1.8</v>
       </c>
-      <c r="N6" s="1" t="n">
+      <c r="O6" s="1" t="n">
         <v>13.608</v>
       </c>
-      <c r="O6" s="1" t="n">
+      <c r="P6" s="1" t="n">
         <v>100.6</v>
       </c>
-      <c r="P6" s="1" t="n">
+      <c r="Q6" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="Q6" s="1" t="n">
+      <c r="R6" s="1" t="n">
         <v>-6.6</v>
       </c>
-      <c r="R6" s="1" t="n">
-        <f aca="false">MIN(T6:AE6)</f>
+      <c r="S6" s="1" t="n">
+        <f aca="false">MIN(U6:AF6)</f>
         <v>-7.7</v>
       </c>
-      <c r="S6" s="1" t="n">
-        <f aca="false">MAX(T6:AE6)</f>
-        <v>-3.6</v>
-      </c>
       <c r="T6" s="1" t="n">
+        <f aca="false">MAX(U6:AF6)</f>
         <v>-3.6</v>
       </c>
       <c r="U6" s="1" t="n">
         <v>-3.6</v>
       </c>
       <c r="V6" s="1" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="W6" s="1" t="n">
         <v>-4.1</v>
       </c>
-      <c r="W6" s="1" t="n">
+      <c r="X6" s="1" t="n">
         <v>-4.5</v>
       </c>
-      <c r="X6" s="1" t="n">
+      <c r="Y6" s="1" t="n">
         <v>-5.3</v>
       </c>
-      <c r="Y6" s="1" t="n">
+      <c r="Z6" s="1" t="n">
         <v>-4.5</v>
       </c>
-      <c r="Z6" s="1" t="n">
+      <c r="AA6" s="1" t="n">
         <v>-4.9</v>
       </c>
-      <c r="AA6" s="1" t="n">
+      <c r="AB6" s="1" t="n">
         <v>-5.8</v>
       </c>
-      <c r="AB6" s="1" t="n">
+      <c r="AC6" s="1" t="n">
         <v>-7.3</v>
       </c>
-      <c r="AC6" s="1" t="n">
+      <c r="AD6" s="1" t="n">
         <v>-7.7</v>
       </c>
-      <c r="AD6" s="1" t="n">
+      <c r="AE6" s="1" t="n">
         <v>-6.1</v>
       </c>
-      <c r="AE6" s="1" t="n">
+      <c r="AF6" s="1" t="n">
         <v>-4.4</v>
       </c>
-      <c r="AF6" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AG6" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="H7" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="6" t="n">
         <v>18.8</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5" t="n">
+      <c r="L7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5" t="n">
         <v>-1.8</v>
       </c>
-      <c r="N7" s="1" t="n">
+      <c r="O7" s="1" t="n">
         <v>13.608</v>
       </c>
-      <c r="O7" s="1" t="n">
+      <c r="P7" s="1" t="n">
         <v>100.6</v>
       </c>
-      <c r="P7" s="1" t="n">
+      <c r="Q7" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="Q7" s="1" t="n">
+      <c r="R7" s="1" t="n">
         <v>-6.6</v>
       </c>
-      <c r="R7" s="1" t="n">
-        <f aca="false">MIN(T7:AE7)</f>
+      <c r="S7" s="1" t="n">
+        <f aca="false">MIN(U7:AF7)</f>
         <v>-7.7</v>
       </c>
-      <c r="S7" s="1" t="n">
-        <f aca="false">MAX(T7:AE7)</f>
-        <v>-3.6</v>
-      </c>
       <c r="T7" s="1" t="n">
+        <f aca="false">MAX(U7:AF7)</f>
         <v>-3.6</v>
       </c>
       <c r="U7" s="1" t="n">
         <v>-3.6</v>
       </c>
       <c r="V7" s="1" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="W7" s="1" t="n">
         <v>-4.1</v>
       </c>
-      <c r="W7" s="1" t="n">
+      <c r="X7" s="1" t="n">
         <v>-4.5</v>
       </c>
-      <c r="X7" s="1" t="n">
+      <c r="Y7" s="1" t="n">
         <v>-5.3</v>
       </c>
-      <c r="Y7" s="1" t="n">
+      <c r="Z7" s="1" t="n">
         <v>-4.5</v>
       </c>
-      <c r="Z7" s="1" t="n">
+      <c r="AA7" s="1" t="n">
         <v>-4.9</v>
       </c>
-      <c r="AA7" s="1" t="n">
+      <c r="AB7" s="1" t="n">
         <v>-5.8</v>
       </c>
-      <c r="AB7" s="1" t="n">
+      <c r="AC7" s="1" t="n">
         <v>-7.3</v>
       </c>
-      <c r="AC7" s="1" t="n">
+      <c r="AD7" s="1" t="n">
         <v>-7.7</v>
       </c>
-      <c r="AD7" s="1" t="n">
+      <c r="AE7" s="1" t="n">
         <v>-6.1</v>
       </c>
-      <c r="AE7" s="1" t="n">
+      <c r="AF7" s="1" t="n">
         <v>-4.4</v>
       </c>
-      <c r="AF7" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AG7" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>44.379</v>
+      </c>
+      <c r="P8" s="1" t="n">
+        <v>4.697</v>
+      </c>
+      <c r="Q8" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="R8" s="1" t="n">
+        <v>-6.1</v>
+      </c>
+      <c r="S8" s="1" t="n">
+        <f aca="false">MIN(U8:AF8)</f>
+        <v>-9.8</v>
+      </c>
+      <c r="T8" s="1" t="n">
+        <f aca="false">MAX(U8:AF8)</f>
+        <v>-1.4</v>
+      </c>
+      <c r="U8" s="1" t="n">
+        <v>-9.8</v>
+      </c>
+      <c r="V8" s="1" t="n">
+        <v>-9.6</v>
+      </c>
+      <c r="W8" s="1" t="n">
+        <v>-8.1</v>
+      </c>
+      <c r="X8" s="1" t="n">
+        <v>-6.3</v>
+      </c>
+      <c r="Y8" s="1" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="Z8" s="1" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="AA8" s="1" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="AB8" s="1" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="AC8" s="1" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="AD8" s="1" t="n">
+        <v>-5.3</v>
+      </c>
+      <c r="AE8" s="1" t="n">
+        <v>-7.7</v>
+      </c>
+      <c r="AF8" s="1" t="n">
+        <v>-8.9</v>
+      </c>
+      <c r="AG8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="6" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5" t="n">
-        <v>-2.1</v>
-      </c>
-      <c r="N8" s="1" t="n">
-        <v>44.379</v>
-      </c>
-      <c r="O8" s="1" t="n">
-        <v>4.697</v>
-      </c>
-      <c r="P8" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="Q8" s="1" t="n">
-        <v>-6.1</v>
-      </c>
-      <c r="R8" s="1" t="n">
-        <f aca="false">MIN(T8:AE8)</f>
-        <v>-9.8</v>
-      </c>
-      <c r="S8" s="1" t="n">
-        <f aca="false">MAX(T8:AE8)</f>
-        <v>-1.4</v>
-      </c>
-      <c r="T8" s="1" t="n">
-        <v>-9.8</v>
-      </c>
-      <c r="U8" s="1" t="n">
-        <v>-9.6</v>
-      </c>
-      <c r="V8" s="1" t="n">
-        <v>-8.1</v>
-      </c>
-      <c r="W8" s="1" t="n">
-        <v>-6.3</v>
-      </c>
-      <c r="X8" s="1" t="n">
-        <v>-4.1</v>
-      </c>
-      <c r="Y8" s="1" t="n">
-        <v>-2.8</v>
-      </c>
-      <c r="Z8" s="1" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="AA8" s="1" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="AB8" s="1" t="n">
-        <v>-3.2</v>
-      </c>
-      <c r="AC8" s="1" t="n">
-        <v>-5.3</v>
-      </c>
-      <c r="AD8" s="1" t="n">
-        <v>-7.7</v>
-      </c>
-      <c r="AE8" s="1" t="n">
-        <v>-8.9</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG8" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="AH8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="6" t="n">
         <v>18.3</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5" t="n">
+      <c r="L9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5" t="n">
         <v>-2.1</v>
       </c>
-      <c r="N9" s="1" t="n">
+      <c r="O9" s="1" t="n">
         <v>44.379</v>
       </c>
-      <c r="O9" s="1" t="n">
+      <c r="P9" s="1" t="n">
         <v>4.697</v>
       </c>
-      <c r="P9" s="1" t="n">
+      <c r="Q9" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="Q9" s="1" t="n">
+      <c r="R9" s="1" t="n">
         <v>-6.1</v>
       </c>
-      <c r="R9" s="1" t="n">
-        <f aca="false">MIN(T9:AE9)</f>
+      <c r="S9" s="1" t="n">
+        <f aca="false">MIN(U9:AF9)</f>
         <v>-9.8</v>
       </c>
-      <c r="S9" s="1" t="n">
-        <f aca="false">MAX(T9:AE9)</f>
+      <c r="T9" s="1" t="n">
+        <f aca="false">MAX(U9:AF9)</f>
         <v>-1.4</v>
       </c>
-      <c r="T9" s="1" t="n">
+      <c r="U9" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="U9" s="1" t="n">
+      <c r="V9" s="1" t="n">
         <v>-9.6</v>
       </c>
-      <c r="V9" s="1" t="n">
+      <c r="W9" s="1" t="n">
         <v>-8.1</v>
       </c>
-      <c r="W9" s="1" t="n">
+      <c r="X9" s="1" t="n">
         <v>-6.3</v>
       </c>
-      <c r="X9" s="1" t="n">
+      <c r="Y9" s="1" t="n">
         <v>-4.1</v>
       </c>
-      <c r="Y9" s="1" t="n">
+      <c r="Z9" s="1" t="n">
         <v>-2.8</v>
       </c>
-      <c r="Z9" s="1" t="n">
+      <c r="AA9" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="AA9" s="1" t="n">
+      <c r="AB9" s="1" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AB9" s="1" t="n">
+      <c r="AC9" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AC9" s="1" t="n">
+      <c r="AD9" s="1" t="n">
         <v>-5.3</v>
       </c>
-      <c r="AD9" s="1" t="n">
+      <c r="AE9" s="1" t="n">
         <v>-7.7</v>
       </c>
-      <c r="AE9" s="1" t="n">
+      <c r="AF9" s="1" t="n">
         <v>-8.9</v>
       </c>
-      <c r="AF9" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AG9" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="G10" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="6" t="n">
         <v>19.3</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5" t="n">
+      <c r="L10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5" t="n">
         <v>-2.1</v>
       </c>
-      <c r="N10" s="1" t="n">
+      <c r="O10" s="1" t="n">
         <v>44.379</v>
       </c>
-      <c r="O10" s="1" t="n">
+      <c r="P10" s="1" t="n">
         <v>4.697</v>
       </c>
-      <c r="P10" s="1" t="n">
+      <c r="Q10" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="Q10" s="1" t="n">
+      <c r="R10" s="1" t="n">
         <v>-6.1</v>
       </c>
-      <c r="R10" s="1" t="n">
-        <f aca="false">MIN(T10:AE10)</f>
+      <c r="S10" s="1" t="n">
+        <f aca="false">MIN(U10:AF10)</f>
         <v>-9.8</v>
       </c>
-      <c r="S10" s="1" t="n">
-        <f aca="false">MAX(T10:AE10)</f>
+      <c r="T10" s="1" t="n">
+        <f aca="false">MAX(U10:AF10)</f>
         <v>-1.4</v>
       </c>
-      <c r="T10" s="1" t="n">
+      <c r="U10" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="U10" s="1" t="n">
+      <c r="V10" s="1" t="n">
         <v>-9.6</v>
       </c>
-      <c r="V10" s="1" t="n">
+      <c r="W10" s="1" t="n">
         <v>-8.1</v>
       </c>
-      <c r="W10" s="1" t="n">
+      <c r="X10" s="1" t="n">
         <v>-6.3</v>
       </c>
-      <c r="X10" s="1" t="n">
+      <c r="Y10" s="1" t="n">
         <v>-4.1</v>
       </c>
-      <c r="Y10" s="1" t="n">
+      <c r="Z10" s="1" t="n">
         <v>-2.8</v>
       </c>
-      <c r="Z10" s="1" t="n">
+      <c r="AA10" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="AA10" s="1" t="n">
+      <c r="AB10" s="1" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AB10" s="1" t="n">
+      <c r="AC10" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AC10" s="1" t="n">
+      <c r="AD10" s="1" t="n">
         <v>-5.3</v>
       </c>
-      <c r="AD10" s="1" t="n">
+      <c r="AE10" s="1" t="n">
         <v>-7.7</v>
       </c>
-      <c r="AE10" s="1" t="n">
+      <c r="AF10" s="1" t="n">
         <v>-8.9</v>
       </c>
-      <c r="AF10" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AG10" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="6" t="n">
         <v>16.2</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5" t="n">
+      <c r="L11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5" t="n">
         <v>-5.5</v>
       </c>
-      <c r="N11" s="1" t="n">
+      <c r="O11" s="1" t="n">
         <v>44.379</v>
       </c>
-      <c r="O11" s="1" t="n">
+      <c r="P11" s="1" t="n">
         <v>4.697</v>
       </c>
-      <c r="P11" s="1" t="n">
+      <c r="Q11" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="Q11" s="1" t="n">
+      <c r="R11" s="1" t="n">
         <v>-6.1</v>
       </c>
-      <c r="R11" s="1" t="n">
-        <f aca="false">MIN(T11:AE11)</f>
+      <c r="S11" s="1" t="n">
+        <f aca="false">MIN(U11:AF11)</f>
         <v>-9.8</v>
       </c>
-      <c r="S11" s="1" t="n">
-        <f aca="false">MAX(T11:AE11)</f>
+      <c r="T11" s="1" t="n">
+        <f aca="false">MAX(U11:AF11)</f>
         <v>-1.4</v>
       </c>
-      <c r="T11" s="1" t="n">
+      <c r="U11" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="U11" s="1" t="n">
+      <c r="V11" s="1" t="n">
         <v>-9.6</v>
       </c>
-      <c r="V11" s="1" t="n">
+      <c r="W11" s="1" t="n">
         <v>-8.1</v>
       </c>
-      <c r="W11" s="1" t="n">
+      <c r="X11" s="1" t="n">
         <v>-6.3</v>
       </c>
-      <c r="X11" s="1" t="n">
+      <c r="Y11" s="1" t="n">
         <v>-4.1</v>
       </c>
-      <c r="Y11" s="1" t="n">
+      <c r="Z11" s="1" t="n">
         <v>-2.8</v>
       </c>
-      <c r="Z11" s="1" t="n">
+      <c r="AA11" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="AA11" s="1" t="n">
+      <c r="AB11" s="1" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AB11" s="1" t="n">
+      <c r="AC11" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AC11" s="1" t="n">
+      <c r="AD11" s="1" t="n">
         <v>-5.3</v>
       </c>
-      <c r="AD11" s="1" t="n">
+      <c r="AE11" s="1" t="n">
         <v>-7.7</v>
       </c>
-      <c r="AE11" s="1" t="n">
+      <c r="AF11" s="1" t="n">
         <v>-8.9</v>
       </c>
-      <c r="AF11" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AG11" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="6" t="n">
         <v>17.1</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5" t="n">
+      <c r="L12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5" t="n">
         <v>-5.5</v>
       </c>
-      <c r="N12" s="1" t="n">
+      <c r="O12" s="1" t="n">
         <v>44.379</v>
       </c>
-      <c r="O12" s="1" t="n">
+      <c r="P12" s="1" t="n">
         <v>4.697</v>
       </c>
-      <c r="P12" s="1" t="n">
+      <c r="Q12" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="Q12" s="1" t="n">
+      <c r="R12" s="1" t="n">
         <v>-6.1</v>
       </c>
-      <c r="R12" s="1" t="n">
-        <f aca="false">MIN(T12:AE12)</f>
+      <c r="S12" s="1" t="n">
+        <f aca="false">MIN(U12:AF12)</f>
         <v>-9.8</v>
       </c>
-      <c r="S12" s="1" t="n">
-        <f aca="false">MAX(T12:AE12)</f>
+      <c r="T12" s="1" t="n">
+        <f aca="false">MAX(U12:AF12)</f>
         <v>-1.4</v>
       </c>
-      <c r="T12" s="1" t="n">
+      <c r="U12" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="U12" s="1" t="n">
+      <c r="V12" s="1" t="n">
         <v>-9.6</v>
       </c>
-      <c r="V12" s="1" t="n">
+      <c r="W12" s="1" t="n">
         <v>-8.1</v>
       </c>
-      <c r="W12" s="1" t="n">
+      <c r="X12" s="1" t="n">
         <v>-6.3</v>
       </c>
-      <c r="X12" s="1" t="n">
+      <c r="Y12" s="1" t="n">
         <v>-4.1</v>
       </c>
-      <c r="Y12" s="1" t="n">
+      <c r="Z12" s="1" t="n">
         <v>-2.8</v>
       </c>
-      <c r="Z12" s="1" t="n">
+      <c r="AA12" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="AA12" s="1" t="n">
+      <c r="AB12" s="1" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AB12" s="1" t="n">
+      <c r="AC12" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AC12" s="1" t="n">
+      <c r="AD12" s="1" t="n">
         <v>-5.3</v>
       </c>
-      <c r="AD12" s="1" t="n">
+      <c r="AE12" s="1" t="n">
         <v>-7.7</v>
       </c>
-      <c r="AE12" s="1" t="n">
+      <c r="AF12" s="1" t="n">
         <v>-8.9</v>
       </c>
-      <c r="AF12" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AG12" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="6" t="n">
         <v>16.9</v>
       </c>
-      <c r="K13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5" t="n">
+      <c r="L13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5" t="n">
         <v>-5.5</v>
       </c>
-      <c r="N13" s="1" t="n">
+      <c r="O13" s="1" t="n">
         <v>44.379</v>
       </c>
-      <c r="O13" s="1" t="n">
+      <c r="P13" s="1" t="n">
         <v>4.697</v>
       </c>
-      <c r="P13" s="1" t="n">
+      <c r="Q13" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="Q13" s="1" t="n">
+      <c r="R13" s="1" t="n">
         <v>-6.1</v>
       </c>
-      <c r="R13" s="1" t="n">
-        <f aca="false">MIN(T13:AE13)</f>
+      <c r="S13" s="1" t="n">
+        <f aca="false">MIN(U13:AF13)</f>
         <v>-9.8</v>
       </c>
-      <c r="S13" s="1" t="n">
-        <f aca="false">MAX(T13:AE13)</f>
+      <c r="T13" s="1" t="n">
+        <f aca="false">MAX(U13:AF13)</f>
         <v>-1.4</v>
       </c>
-      <c r="T13" s="1" t="n">
+      <c r="U13" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="U13" s="1" t="n">
+      <c r="V13" s="1" t="n">
         <v>-9.6</v>
       </c>
-      <c r="V13" s="1" t="n">
+      <c r="W13" s="1" t="n">
         <v>-8.1</v>
       </c>
-      <c r="W13" s="1" t="n">
+      <c r="X13" s="1" t="n">
         <v>-6.3</v>
       </c>
-      <c r="X13" s="1" t="n">
+      <c r="Y13" s="1" t="n">
         <v>-4.1</v>
       </c>
-      <c r="Y13" s="1" t="n">
+      <c r="Z13" s="1" t="n">
         <v>-2.8</v>
       </c>
-      <c r="Z13" s="1" t="n">
+      <c r="AA13" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="AA13" s="1" t="n">
+      <c r="AB13" s="1" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AB13" s="1" t="n">
+      <c r="AC13" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AC13" s="1" t="n">
+      <c r="AD13" s="1" t="n">
         <v>-5.3</v>
       </c>
-      <c r="AD13" s="1" t="n">
+      <c r="AE13" s="1" t="n">
         <v>-7.7</v>
       </c>
-      <c r="AE13" s="1" t="n">
+      <c r="AF13" s="1" t="n">
         <v>-8.9</v>
       </c>
-      <c r="AF13" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AG13" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="6" t="n">
         <v>15.6</v>
       </c>
-      <c r="K14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5" t="n">
+      <c r="L14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5" t="n">
         <v>-5.5</v>
       </c>
-      <c r="N14" s="1" t="n">
+      <c r="O14" s="1" t="n">
         <v>44.379</v>
       </c>
-      <c r="O14" s="1" t="n">
+      <c r="P14" s="1" t="n">
         <v>4.697</v>
       </c>
-      <c r="P14" s="1" t="n">
+      <c r="Q14" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="Q14" s="1" t="n">
+      <c r="R14" s="1" t="n">
         <v>-6.1</v>
       </c>
-      <c r="R14" s="1" t="n">
-        <f aca="false">MIN(T14:AE14)</f>
+      <c r="S14" s="1" t="n">
+        <f aca="false">MIN(U14:AF14)</f>
         <v>-9.8</v>
       </c>
-      <c r="S14" s="1" t="n">
-        <f aca="false">MAX(T14:AE14)</f>
+      <c r="T14" s="1" t="n">
+        <f aca="false">MAX(U14:AF14)</f>
         <v>-1.4</v>
       </c>
-      <c r="T14" s="1" t="n">
+      <c r="U14" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="U14" s="1" t="n">
+      <c r="V14" s="1" t="n">
         <v>-9.6</v>
       </c>
-      <c r="V14" s="1" t="n">
+      <c r="W14" s="1" t="n">
         <v>-8.1</v>
       </c>
-      <c r="W14" s="1" t="n">
+      <c r="X14" s="1" t="n">
         <v>-6.3</v>
       </c>
-      <c r="X14" s="1" t="n">
+      <c r="Y14" s="1" t="n">
         <v>-4.1</v>
       </c>
-      <c r="Y14" s="1" t="n">
+      <c r="Z14" s="1" t="n">
         <v>-2.8</v>
       </c>
-      <c r="Z14" s="1" t="n">
+      <c r="AA14" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="AA14" s="1" t="n">
+      <c r="AB14" s="1" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AB14" s="1" t="n">
+      <c r="AC14" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AC14" s="1" t="n">
+      <c r="AD14" s="1" t="n">
         <v>-5.3</v>
       </c>
-      <c r="AD14" s="1" t="n">
+      <c r="AE14" s="1" t="n">
         <v>-7.7</v>
       </c>
-      <c r="AE14" s="1" t="n">
+      <c r="AF14" s="1" t="n">
         <v>-8.9</v>
       </c>
-      <c r="AF14" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AG14" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="6" t="n">
         <v>13.3</v>
       </c>
-      <c r="K15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5" t="n">
+      <c r="L15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5" t="n">
         <v>-8.8</v>
       </c>
-      <c r="N15" s="1" t="n">
+      <c r="O15" s="1" t="n">
         <v>44.379</v>
       </c>
-      <c r="O15" s="1" t="n">
+      <c r="P15" s="1" t="n">
         <v>4.697</v>
       </c>
-      <c r="P15" s="1" t="n">
+      <c r="Q15" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="Q15" s="1" t="n">
+      <c r="R15" s="1" t="n">
         <v>-6.1</v>
       </c>
-      <c r="R15" s="1" t="n">
-        <f aca="false">MIN(T15:AE15)</f>
+      <c r="S15" s="1" t="n">
+        <f aca="false">MIN(U15:AF15)</f>
         <v>-9.8</v>
       </c>
-      <c r="S15" s="1" t="n">
-        <f aca="false">MAX(T15:AE15)</f>
+      <c r="T15" s="1" t="n">
+        <f aca="false">MAX(U15:AF15)</f>
         <v>-1.4</v>
       </c>
-      <c r="T15" s="1" t="n">
+      <c r="U15" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="U15" s="1" t="n">
+      <c r="V15" s="1" t="n">
         <v>-9.6</v>
       </c>
-      <c r="V15" s="1" t="n">
+      <c r="W15" s="1" t="n">
         <v>-8.1</v>
       </c>
-      <c r="W15" s="1" t="n">
+      <c r="X15" s="1" t="n">
         <v>-6.3</v>
       </c>
-      <c r="X15" s="1" t="n">
+      <c r="Y15" s="1" t="n">
         <v>-4.1</v>
       </c>
-      <c r="Y15" s="1" t="n">
+      <c r="Z15" s="1" t="n">
         <v>-2.8</v>
       </c>
-      <c r="Z15" s="1" t="n">
+      <c r="AA15" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="AA15" s="1" t="n">
+      <c r="AB15" s="1" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AB15" s="1" t="n">
+      <c r="AC15" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AC15" s="1" t="n">
+      <c r="AD15" s="1" t="n">
         <v>-5.3</v>
       </c>
-      <c r="AD15" s="1" t="n">
+      <c r="AE15" s="1" t="n">
         <v>-7.7</v>
       </c>
-      <c r="AE15" s="1" t="n">
+      <c r="AF15" s="1" t="n">
         <v>-8.9</v>
       </c>
-      <c r="AF15" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AG15" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AH15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="6" t="n">
         <v>13.8</v>
       </c>
-      <c r="K16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5" t="n">
+      <c r="L16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5" t="n">
         <v>-8.8</v>
       </c>
-      <c r="N16" s="1" t="n">
+      <c r="O16" s="1" t="n">
         <v>44.379</v>
       </c>
-      <c r="O16" s="1" t="n">
+      <c r="P16" s="1" t="n">
         <v>4.697</v>
       </c>
-      <c r="P16" s="1" t="n">
+      <c r="Q16" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="Q16" s="1" t="n">
+      <c r="R16" s="1" t="n">
         <v>-6.1</v>
       </c>
-      <c r="R16" s="1" t="n">
-        <f aca="false">MIN(T16:AE16)</f>
+      <c r="S16" s="1" t="n">
+        <f aca="false">MIN(U16:AF16)</f>
         <v>-9.8</v>
       </c>
-      <c r="S16" s="1" t="n">
-        <f aca="false">MAX(T16:AE16)</f>
+      <c r="T16" s="1" t="n">
+        <f aca="false">MAX(U16:AF16)</f>
         <v>-1.4</v>
       </c>
-      <c r="T16" s="1" t="n">
+      <c r="U16" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="U16" s="1" t="n">
+      <c r="V16" s="1" t="n">
         <v>-9.6</v>
       </c>
-      <c r="V16" s="1" t="n">
+      <c r="W16" s="1" t="n">
         <v>-8.1</v>
       </c>
-      <c r="W16" s="1" t="n">
+      <c r="X16" s="1" t="n">
         <v>-6.3</v>
       </c>
-      <c r="X16" s="1" t="n">
+      <c r="Y16" s="1" t="n">
         <v>-4.1</v>
       </c>
-      <c r="Y16" s="1" t="n">
+      <c r="Z16" s="1" t="n">
         <v>-2.8</v>
       </c>
-      <c r="Z16" s="1" t="n">
+      <c r="AA16" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="AA16" s="1" t="n">
+      <c r="AB16" s="1" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AB16" s="1" t="n">
+      <c r="AC16" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AC16" s="1" t="n">
+      <c r="AD16" s="1" t="n">
         <v>-5.3</v>
       </c>
-      <c r="AD16" s="1" t="n">
+      <c r="AE16" s="1" t="n">
         <v>-7.7</v>
       </c>
-      <c r="AE16" s="1" t="n">
+      <c r="AF16" s="1" t="n">
         <v>-8.9</v>
       </c>
-      <c r="AF16" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AG16" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AH16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J17" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="6" t="n">
         <v>13.6</v>
       </c>
-      <c r="K17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5" t="n">
+      <c r="L17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5" t="n">
         <v>-8.8</v>
       </c>
-      <c r="N17" s="1" t="n">
+      <c r="O17" s="1" t="n">
         <v>44.379</v>
       </c>
-      <c r="O17" s="1" t="n">
+      <c r="P17" s="1" t="n">
         <v>4.697</v>
       </c>
-      <c r="P17" s="1" t="n">
+      <c r="Q17" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="Q17" s="1" t="n">
+      <c r="R17" s="1" t="n">
         <v>-6.1</v>
       </c>
-      <c r="R17" s="1" t="n">
-        <f aca="false">MIN(T17:AE17)</f>
+      <c r="S17" s="1" t="n">
+        <f aca="false">MIN(U17:AF17)</f>
         <v>-9.8</v>
       </c>
-      <c r="S17" s="1" t="n">
-        <f aca="false">MAX(T17:AE17)</f>
+      <c r="T17" s="1" t="n">
+        <f aca="false">MAX(U17:AF17)</f>
         <v>-1.4</v>
       </c>
-      <c r="T17" s="1" t="n">
+      <c r="U17" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="U17" s="1" t="n">
+      <c r="V17" s="1" t="n">
         <v>-9.6</v>
       </c>
-      <c r="V17" s="1" t="n">
+      <c r="W17" s="1" t="n">
         <v>-8.1</v>
       </c>
-      <c r="W17" s="1" t="n">
+      <c r="X17" s="1" t="n">
         <v>-6.3</v>
       </c>
-      <c r="X17" s="1" t="n">
+      <c r="Y17" s="1" t="n">
         <v>-4.1</v>
       </c>
-      <c r="Y17" s="1" t="n">
+      <c r="Z17" s="1" t="n">
         <v>-2.8</v>
       </c>
-      <c r="Z17" s="1" t="n">
+      <c r="AA17" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="AA17" s="1" t="n">
+      <c r="AB17" s="1" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AB17" s="1" t="n">
+      <c r="AC17" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AC17" s="1" t="n">
+      <c r="AD17" s="1" t="n">
         <v>-5.3</v>
       </c>
-      <c r="AD17" s="1" t="n">
+      <c r="AE17" s="1" t="n">
         <v>-7.7</v>
       </c>
-      <c r="AE17" s="1" t="n">
+      <c r="AF17" s="1" t="n">
         <v>-8.9</v>
       </c>
-      <c r="AF17" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AG17" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AH17" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="6" t="n">
         <v>12.6</v>
       </c>
-      <c r="K18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5" t="n">
+      <c r="L18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5" t="n">
         <v>-8.8</v>
       </c>
-      <c r="N18" s="1" t="n">
+      <c r="O18" s="1" t="n">
         <v>44.379</v>
       </c>
-      <c r="O18" s="1" t="n">
+      <c r="P18" s="1" t="n">
         <v>4.697</v>
       </c>
-      <c r="P18" s="1" t="n">
+      <c r="Q18" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="Q18" s="1" t="n">
+      <c r="R18" s="1" t="n">
         <v>-6.1</v>
       </c>
-      <c r="R18" s="1" t="n">
-        <f aca="false">MIN(T18:AE18)</f>
+      <c r="S18" s="1" t="n">
+        <f aca="false">MIN(U18:AF18)</f>
         <v>-9.8</v>
       </c>
-      <c r="S18" s="1" t="n">
-        <f aca="false">MAX(T18:AE18)</f>
+      <c r="T18" s="1" t="n">
+        <f aca="false">MAX(U18:AF18)</f>
         <v>-1.4</v>
       </c>
-      <c r="T18" s="1" t="n">
+      <c r="U18" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="U18" s="1" t="n">
+      <c r="V18" s="1" t="n">
         <v>-9.6</v>
       </c>
-      <c r="V18" s="1" t="n">
+      <c r="W18" s="1" t="n">
         <v>-8.1</v>
       </c>
-      <c r="W18" s="1" t="n">
+      <c r="X18" s="1" t="n">
         <v>-6.3</v>
       </c>
-      <c r="X18" s="1" t="n">
+      <c r="Y18" s="1" t="n">
         <v>-4.1</v>
       </c>
-      <c r="Y18" s="1" t="n">
+      <c r="Z18" s="1" t="n">
         <v>-2.8</v>
       </c>
-      <c r="Z18" s="1" t="n">
+      <c r="AA18" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="AA18" s="1" t="n">
+      <c r="AB18" s="1" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AB18" s="1" t="n">
+      <c r="AC18" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AC18" s="1" t="n">
+      <c r="AD18" s="1" t="n">
         <v>-5.3</v>
       </c>
-      <c r="AD18" s="1" t="n">
+      <c r="AE18" s="1" t="n">
         <v>-7.7</v>
       </c>
-      <c r="AE18" s="1" t="n">
+      <c r="AF18" s="1" t="n">
         <v>-8.9</v>
       </c>
-      <c r="AF18" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AG18" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AH18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J19" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="6" t="n">
         <v>14.3</v>
       </c>
-      <c r="K19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5" t="n">
+      <c r="L19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5" t="n">
         <v>-8.8</v>
       </c>
-      <c r="N19" s="1" t="n">
+      <c r="O19" s="1" t="n">
         <v>44.379</v>
       </c>
-      <c r="O19" s="1" t="n">
+      <c r="P19" s="1" t="n">
         <v>4.697</v>
       </c>
-      <c r="P19" s="1" t="n">
+      <c r="Q19" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="Q19" s="1" t="n">
+      <c r="R19" s="1" t="n">
         <v>-6.1</v>
       </c>
-      <c r="R19" s="1" t="n">
-        <f aca="false">MIN(T19:AE19)</f>
+      <c r="S19" s="1" t="n">
+        <f aca="false">MIN(U19:AF19)</f>
         <v>-9.8</v>
       </c>
-      <c r="S19" s="1" t="n">
-        <f aca="false">MAX(T19:AE19)</f>
+      <c r="T19" s="1" t="n">
+        <f aca="false">MAX(U19:AF19)</f>
         <v>-1.4</v>
       </c>
-      <c r="T19" s="1" t="n">
+      <c r="U19" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="U19" s="1" t="n">
+      <c r="V19" s="1" t="n">
         <v>-9.6</v>
       </c>
-      <c r="V19" s="1" t="n">
+      <c r="W19" s="1" t="n">
         <v>-8.1</v>
       </c>
-      <c r="W19" s="1" t="n">
+      <c r="X19" s="1" t="n">
         <v>-6.3</v>
       </c>
-      <c r="X19" s="1" t="n">
+      <c r="Y19" s="1" t="n">
         <v>-4.1</v>
       </c>
-      <c r="Y19" s="1" t="n">
+      <c r="Z19" s="1" t="n">
         <v>-2.8</v>
       </c>
-      <c r="Z19" s="1" t="n">
+      <c r="AA19" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="AA19" s="1" t="n">
+      <c r="AB19" s="1" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AB19" s="1" t="n">
+      <c r="AC19" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AC19" s="1" t="n">
+      <c r="AD19" s="1" t="n">
         <v>-5.3</v>
       </c>
-      <c r="AD19" s="1" t="n">
+      <c r="AE19" s="1" t="n">
         <v>-7.7</v>
       </c>
-      <c r="AE19" s="1" t="n">
+      <c r="AF19" s="1" t="n">
         <v>-8.9</v>
       </c>
-      <c r="AF19" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AG19" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AH19" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J20" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" s="6" t="n">
         <v>12.5</v>
       </c>
-      <c r="K20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5" t="n">
+      <c r="L20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5" t="n">
         <v>-8.8</v>
       </c>
-      <c r="N20" s="1" t="n">
+      <c r="O20" s="1" t="n">
         <v>44.379</v>
       </c>
-      <c r="O20" s="1" t="n">
+      <c r="P20" s="1" t="n">
         <v>4.697</v>
       </c>
-      <c r="P20" s="1" t="n">
+      <c r="Q20" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="Q20" s="1" t="n">
+      <c r="R20" s="1" t="n">
         <v>-6.1</v>
       </c>
-      <c r="R20" s="1" t="n">
-        <f aca="false">MIN(T20:AE20)</f>
+      <c r="S20" s="1" t="n">
+        <f aca="false">MIN(U20:AF20)</f>
         <v>-9.8</v>
       </c>
-      <c r="S20" s="1" t="n">
-        <f aca="false">MAX(T20:AE20)</f>
+      <c r="T20" s="1" t="n">
+        <f aca="false">MAX(U20:AF20)</f>
         <v>-1.4</v>
       </c>
-      <c r="T20" s="1" t="n">
+      <c r="U20" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="U20" s="1" t="n">
+      <c r="V20" s="1" t="n">
         <v>-9.6</v>
       </c>
-      <c r="V20" s="1" t="n">
+      <c r="W20" s="1" t="n">
         <v>-8.1</v>
       </c>
-      <c r="W20" s="1" t="n">
+      <c r="X20" s="1" t="n">
         <v>-6.3</v>
       </c>
-      <c r="X20" s="1" t="n">
+      <c r="Y20" s="1" t="n">
         <v>-4.1</v>
       </c>
-      <c r="Y20" s="1" t="n">
+      <c r="Z20" s="1" t="n">
         <v>-2.8</v>
       </c>
-      <c r="Z20" s="1" t="n">
+      <c r="AA20" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="AA20" s="1" t="n">
+      <c r="AB20" s="1" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AB20" s="1" t="n">
+      <c r="AC20" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AC20" s="1" t="n">
+      <c r="AD20" s="1" t="n">
         <v>-5.3</v>
       </c>
-      <c r="AD20" s="1" t="n">
+      <c r="AE20" s="1" t="n">
         <v>-7.7</v>
       </c>
-      <c r="AE20" s="1" t="n">
+      <c r="AF20" s="1" t="n">
         <v>-8.9</v>
       </c>
-      <c r="AF20" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AG20" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AH20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" s="6" t="n">
         <v>20.3</v>
       </c>
-      <c r="K21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5" t="n">
+      <c r="L21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5" t="n">
         <v>-3</v>
       </c>
-      <c r="N21" s="1" t="n">
+      <c r="O21" s="1" t="n">
         <v>-20.48</v>
       </c>
-      <c r="O21" s="1" t="n">
+      <c r="P21" s="1" t="n">
         <v>57.56</v>
       </c>
-      <c r="P21" s="1" t="n">
+      <c r="Q21" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="Q21" s="1" t="n">
+      <c r="R21" s="1" t="n">
         <v>-2.3</v>
       </c>
-      <c r="R21" s="1" t="n">
-        <f aca="false">MIN(T21:AE21)</f>
+      <c r="S21" s="1" t="n">
+        <f aca="false">MIN(U21:AF21)</f>
         <v>-3.8</v>
       </c>
-      <c r="S21" s="1" t="n">
-        <f aca="false">MAX(T21:AE21)</f>
+      <c r="T21" s="1" t="n">
+        <f aca="false">MAX(U21:AF21)</f>
         <v>-1.8</v>
       </c>
-      <c r="T21" s="1" t="n">
+      <c r="U21" s="1" t="n">
         <v>-2.1</v>
       </c>
-      <c r="U21" s="1" t="n">
+      <c r="V21" s="1" t="n">
         <v>-3.8</v>
       </c>
-      <c r="V21" s="1" t="n">
+      <c r="W21" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="W21" s="1" t="n">
+      <c r="X21" s="1" t="n">
         <v>-2.4</v>
       </c>
-      <c r="X21" s="1" t="n">
+      <c r="Y21" s="1" t="n">
         <v>-2.5</v>
       </c>
-      <c r="Y21" s="1" t="n">
+      <c r="Z21" s="1" t="n">
         <v>-2</v>
       </c>
-      <c r="Z21" s="1" t="n">
+      <c r="AA21" s="1" t="n">
         <v>-2.5</v>
       </c>
-      <c r="AA21" s="1" t="n">
+      <c r="AB21" s="1" t="n">
         <v>-2.4</v>
       </c>
-      <c r="AB21" s="1" t="n">
+      <c r="AC21" s="1" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AC21" s="1" t="n">
+      <c r="AD21" s="1" t="n">
         <v>-1.8</v>
       </c>
-      <c r="AD21" s="1" t="n">
+      <c r="AE21" s="1" t="n">
         <v>-2.2</v>
       </c>
-      <c r="AE21" s="1" t="n">
+      <c r="AF21" s="1" t="n">
         <v>-2.4</v>
       </c>
-      <c r="AF21" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AG21" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AH21" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI21" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" s="6" t="n">
         <v>19.2</v>
       </c>
-      <c r="K22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5" t="n">
+      <c r="L22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5" t="n">
         <v>-3</v>
       </c>
-      <c r="N22" s="1" t="n">
+      <c r="O22" s="1" t="n">
         <v>-20.48</v>
       </c>
-      <c r="O22" s="1" t="n">
+      <c r="P22" s="1" t="n">
         <v>57.56</v>
       </c>
-      <c r="P22" s="1" t="n">
+      <c r="Q22" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="Q22" s="1" t="n">
+      <c r="R22" s="1" t="n">
         <v>-2.3</v>
       </c>
-      <c r="R22" s="1" t="n">
-        <f aca="false">MIN(T22:AE22)</f>
+      <c r="S22" s="1" t="n">
+        <f aca="false">MIN(U22:AF22)</f>
         <v>-3.8</v>
       </c>
-      <c r="S22" s="1" t="n">
-        <f aca="false">MAX(T22:AE22)</f>
+      <c r="T22" s="1" t="n">
+        <f aca="false">MAX(U22:AF22)</f>
         <v>-1.8</v>
       </c>
-      <c r="T22" s="1" t="n">
+      <c r="U22" s="1" t="n">
         <v>-2.1</v>
       </c>
-      <c r="U22" s="1" t="n">
+      <c r="V22" s="1" t="n">
         <v>-3.8</v>
       </c>
-      <c r="V22" s="1" t="n">
+      <c r="W22" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="W22" s="1" t="n">
+      <c r="X22" s="1" t="n">
         <v>-2.4</v>
       </c>
-      <c r="X22" s="1" t="n">
+      <c r="Y22" s="1" t="n">
         <v>-2.5</v>
       </c>
-      <c r="Y22" s="1" t="n">
+      <c r="Z22" s="1" t="n">
         <v>-2</v>
       </c>
-      <c r="Z22" s="1" t="n">
+      <c r="AA22" s="1" t="n">
         <v>-2.5</v>
       </c>
-      <c r="AA22" s="1" t="n">
+      <c r="AB22" s="1" t="n">
         <v>-2.4</v>
       </c>
-      <c r="AB22" s="1" t="n">
+      <c r="AC22" s="1" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AC22" s="1" t="n">
+      <c r="AD22" s="1" t="n">
         <v>-1.8</v>
       </c>
-      <c r="AD22" s="1" t="n">
+      <c r="AE22" s="1" t="n">
         <v>-2.2</v>
       </c>
-      <c r="AE22" s="1" t="n">
+      <c r="AF22" s="1" t="n">
         <v>-2.4</v>
       </c>
-      <c r="AF22" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AG22" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AH22" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI22" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J23" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="K23" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5" t="n">
+      <c r="L23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5" t="n">
         <v>-4.7</v>
       </c>
-      <c r="N23" s="1" t="n">
+      <c r="O23" s="1" t="n">
         <v>-15.383</v>
       </c>
-      <c r="O23" s="1" t="n">
+      <c r="P23" s="1" t="n">
         <v>28.323</v>
       </c>
-      <c r="P23" s="1" t="n">
+      <c r="Q23" s="1" t="n">
         <v>1253</v>
       </c>
-      <c r="Q23" s="1" t="n">
+      <c r="R23" s="1" t="n">
         <v>-5.5</v>
       </c>
-      <c r="R23" s="1" t="n">
-        <f aca="false">MIN(T23:AE23)</f>
+      <c r="S23" s="1" t="n">
+        <f aca="false">MIN(U23:AF23)</f>
         <v>-5.6</v>
       </c>
-      <c r="S23" s="1" t="n">
-        <f aca="false">MAX(T23:AE23)</f>
+      <c r="T23" s="1" t="n">
+        <f aca="false">MAX(U23:AF23)</f>
         <v>-1</v>
       </c>
-      <c r="T23" s="1" t="n">
+      <c r="U23" s="1" t="n">
         <v>-5.4</v>
       </c>
-      <c r="U23" s="1" t="n">
+      <c r="V23" s="1" t="n">
         <v>-5.5</v>
       </c>
-      <c r="V23" s="1" t="n">
+      <c r="W23" s="1" t="n">
         <v>-4.6</v>
       </c>
-      <c r="W23" s="1" t="n">
+      <c r="X23" s="1" t="n">
         <v>-4.1</v>
       </c>
-      <c r="X23" s="1" t="n">
+      <c r="Y23" s="1" t="n">
         <v>-2.4</v>
       </c>
-      <c r="Y23" s="1" t="n">
+      <c r="Z23" s="1" t="n">
         <v>-1.3</v>
       </c>
-      <c r="Z23" s="1" t="n">
+      <c r="AA23" s="1" t="n">
         <v>-2.1</v>
       </c>
-      <c r="AA23" s="1" t="n">
+      <c r="AB23" s="1" t="n">
         <v>-1.3</v>
       </c>
-      <c r="AB23" s="1" t="n">
+      <c r="AC23" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="AC23" s="1" t="n">
+      <c r="AD23" s="1" t="n">
         <v>-1.6</v>
       </c>
-      <c r="AD23" s="1" t="n">
+      <c r="AE23" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AE23" s="1" t="n">
+      <c r="AF23" s="1" t="n">
         <v>-5.6</v>
       </c>
-      <c r="AF23" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AG23" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AH23" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI23" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J24" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" s="6" t="n">
         <v>18.7</v>
       </c>
-      <c r="K24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5" t="n">
+      <c r="L24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5" t="n">
         <v>-4.7</v>
       </c>
-      <c r="N24" s="1" t="n">
+      <c r="O24" s="1" t="n">
         <v>-15.383</v>
       </c>
-      <c r="O24" s="1" t="n">
+      <c r="P24" s="1" t="n">
         <v>28.323</v>
       </c>
-      <c r="P24" s="1" t="n">
+      <c r="Q24" s="1" t="n">
         <v>1253</v>
       </c>
-      <c r="Q24" s="1" t="n">
+      <c r="R24" s="1" t="n">
         <v>-5.5</v>
       </c>
-      <c r="R24" s="1" t="n">
-        <f aca="false">MIN(T24:AE24)</f>
+      <c r="S24" s="1" t="n">
+        <f aca="false">MIN(U24:AF24)</f>
         <v>-5.6</v>
       </c>
-      <c r="S24" s="1" t="n">
-        <f aca="false">MAX(T24:AE24)</f>
+      <c r="T24" s="1" t="n">
+        <f aca="false">MAX(U24:AF24)</f>
         <v>-1</v>
       </c>
-      <c r="T24" s="1" t="n">
+      <c r="U24" s="1" t="n">
         <v>-5.4</v>
       </c>
-      <c r="U24" s="1" t="n">
+      <c r="V24" s="1" t="n">
         <v>-5.5</v>
       </c>
-      <c r="V24" s="1" t="n">
+      <c r="W24" s="1" t="n">
         <v>-4.6</v>
       </c>
-      <c r="W24" s="1" t="n">
+      <c r="X24" s="1" t="n">
         <v>-4.1</v>
       </c>
-      <c r="X24" s="1" t="n">
+      <c r="Y24" s="1" t="n">
         <v>-2.4</v>
       </c>
-      <c r="Y24" s="1" t="n">
+      <c r="Z24" s="1" t="n">
         <v>-1.3</v>
       </c>
-      <c r="Z24" s="1" t="n">
+      <c r="AA24" s="1" t="n">
         <v>-2.1</v>
       </c>
-      <c r="AA24" s="1" t="n">
+      <c r="AB24" s="1" t="n">
         <v>-1.3</v>
       </c>
-      <c r="AB24" s="1" t="n">
+      <c r="AC24" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="AC24" s="1" t="n">
+      <c r="AD24" s="1" t="n">
         <v>-1.6</v>
       </c>
-      <c r="AD24" s="1" t="n">
+      <c r="AE24" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AE24" s="1" t="n">
+      <c r="AF24" s="1" t="n">
         <v>-5.6</v>
       </c>
-      <c r="AF24" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AG24" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AH24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI24" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J25" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" s="6" t="n">
         <v>17.4</v>
       </c>
-      <c r="K25" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5" t="n">
+      <c r="L25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5" t="n">
         <v>-6.1</v>
       </c>
-      <c r="N25" s="1" t="n">
+      <c r="O25" s="1" t="n">
         <v>-21.264</v>
       </c>
-      <c r="O25" s="1" t="n">
+      <c r="P25" s="1" t="n">
         <v>55.367</v>
       </c>
-      <c r="P25" s="1" t="n">
+      <c r="Q25" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="Q25" s="1" t="n">
+      <c r="R25" s="1" t="n">
         <v>-2.5</v>
       </c>
-      <c r="R25" s="1" t="n">
-        <f aca="false">MIN(T25:AE25)</f>
+      <c r="S25" s="1" t="n">
+        <f aca="false">MIN(U25:AF25)</f>
         <v>-4</v>
       </c>
-      <c r="S25" s="1" t="n">
-        <f aca="false">MAX(T25:AE25)</f>
+      <c r="T25" s="1" t="n">
+        <f aca="false">MAX(U25:AF25)</f>
         <v>-2</v>
       </c>
-      <c r="T25" s="1" t="n">
+      <c r="U25" s="1" t="n">
         <v>-2.4</v>
       </c>
-      <c r="U25" s="1" t="n">
+      <c r="V25" s="1" t="n">
         <v>-4</v>
       </c>
-      <c r="V25" s="1" t="n">
+      <c r="W25" s="1" t="n">
         <v>-2.7</v>
       </c>
-      <c r="W25" s="1" t="n">
+      <c r="X25" s="1" t="n">
         <v>-2.3</v>
       </c>
-      <c r="X25" s="1" t="n">
+      <c r="Y25" s="1" t="n">
         <v>-2.6</v>
       </c>
-      <c r="Y25" s="1" t="n">
+      <c r="Z25" s="1" t="n">
         <v>-2.2</v>
       </c>
-      <c r="Z25" s="1" t="n">
+      <c r="AA25" s="1" t="n">
         <v>-2.6</v>
       </c>
-      <c r="AA25" s="1" t="n">
+      <c r="AB25" s="1" t="n">
         <v>-2.3</v>
-      </c>
-      <c r="AB25" s="1" t="n">
-        <v>-2.1</v>
       </c>
       <c r="AC25" s="1" t="n">
         <v>-2.1</v>
       </c>
       <c r="AD25" s="1" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="AE25" s="1" t="n">
         <v>-2</v>
       </c>
-      <c r="AE25" s="1" t="n">
+      <c r="AF25" s="1" t="n">
         <v>-2.6</v>
       </c>
-      <c r="AF25" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AG25" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AH25" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI25" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J26" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26" s="6" t="n">
         <v>18.5</v>
       </c>
-      <c r="K26" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5" t="n">
+      <c r="L26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5" t="n">
         <v>-6.1</v>
       </c>
-      <c r="N26" s="1" t="n">
+      <c r="O26" s="1" t="n">
         <v>-21.264</v>
       </c>
-      <c r="O26" s="1" t="n">
+      <c r="P26" s="1" t="n">
         <v>55.367</v>
       </c>
-      <c r="P26" s="1" t="n">
+      <c r="Q26" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="Q26" s="1" t="n">
+      <c r="R26" s="1" t="n">
         <v>-2.5</v>
       </c>
-      <c r="R26" s="1" t="n">
-        <f aca="false">MIN(T26:AE26)</f>
+      <c r="S26" s="1" t="n">
+        <f aca="false">MIN(U26:AF26)</f>
         <v>-4</v>
       </c>
-      <c r="S26" s="1" t="n">
-        <f aca="false">MAX(T26:AE26)</f>
+      <c r="T26" s="1" t="n">
+        <f aca="false">MAX(U26:AF26)</f>
         <v>-2</v>
       </c>
-      <c r="T26" s="1" t="n">
+      <c r="U26" s="1" t="n">
         <v>-2.4</v>
       </c>
-      <c r="U26" s="1" t="n">
+      <c r="V26" s="1" t="n">
         <v>-4</v>
       </c>
-      <c r="V26" s="1" t="n">
+      <c r="W26" s="1" t="n">
         <v>-2.7</v>
       </c>
-      <c r="W26" s="1" t="n">
+      <c r="X26" s="1" t="n">
         <v>-2.3</v>
       </c>
-      <c r="X26" s="1" t="n">
+      <c r="Y26" s="1" t="n">
         <v>-2.6</v>
       </c>
-      <c r="Y26" s="1" t="n">
+      <c r="Z26" s="1" t="n">
         <v>-2.2</v>
       </c>
-      <c r="Z26" s="1" t="n">
+      <c r="AA26" s="1" t="n">
         <v>-2.6</v>
       </c>
-      <c r="AA26" s="1" t="n">
+      <c r="AB26" s="1" t="n">
         <v>-2.3</v>
-      </c>
-      <c r="AB26" s="1" t="n">
-        <v>-2.1</v>
       </c>
       <c r="AC26" s="1" t="n">
         <v>-2.1</v>
       </c>
       <c r="AD26" s="1" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="AE26" s="1" t="n">
         <v>-2</v>
       </c>
-      <c r="AE26" s="1" t="n">
+      <c r="AF26" s="1" t="n">
         <v>-2.6</v>
       </c>
-      <c r="AF26" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AG26" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AH26" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI26" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J27" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27" s="6" t="n">
         <v>13.7</v>
       </c>
-      <c r="K27" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5" t="n">
+      <c r="L27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5" t="n">
         <v>-8.8</v>
       </c>
-      <c r="N27" s="1" t="n">
+      <c r="O27" s="1" t="n">
         <v>44.379</v>
       </c>
-      <c r="O27" s="1" t="n">
+      <c r="P27" s="1" t="n">
         <v>4.697</v>
       </c>
-      <c r="P27" s="1" t="n">
+      <c r="Q27" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="Q27" s="1" t="n">
+      <c r="R27" s="1" t="n">
         <v>-6.1</v>
       </c>
-      <c r="R27" s="1" t="n">
-        <f aca="false">MIN(T27:AE27)</f>
+      <c r="S27" s="1" t="n">
+        <f aca="false">MIN(U27:AF27)</f>
         <v>-9.8</v>
       </c>
-      <c r="S27" s="1" t="n">
-        <f aca="false">MAX(T27:AE27)</f>
+      <c r="T27" s="1" t="n">
+        <f aca="false">MAX(U27:AF27)</f>
         <v>-1.4</v>
       </c>
-      <c r="T27" s="1" t="n">
+      <c r="U27" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="U27" s="1" t="n">
+      <c r="V27" s="1" t="n">
         <v>-9.6</v>
       </c>
-      <c r="V27" s="1" t="n">
+      <c r="W27" s="1" t="n">
         <v>-8.1</v>
       </c>
-      <c r="W27" s="1" t="n">
+      <c r="X27" s="1" t="n">
         <v>-6.3</v>
       </c>
-      <c r="X27" s="1" t="n">
+      <c r="Y27" s="1" t="n">
         <v>-4.1</v>
       </c>
-      <c r="Y27" s="1" t="n">
+      <c r="Z27" s="1" t="n">
         <v>-2.8</v>
       </c>
-      <c r="Z27" s="1" t="n">
+      <c r="AA27" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="AA27" s="1" t="n">
+      <c r="AB27" s="1" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AB27" s="1" t="n">
+      <c r="AC27" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AC27" s="1" t="n">
+      <c r="AD27" s="1" t="n">
         <v>-5.3</v>
       </c>
-      <c r="AD27" s="1" t="n">
+      <c r="AE27" s="1" t="n">
         <v>-7.7</v>
       </c>
-      <c r="AE27" s="1" t="n">
+      <c r="AF27" s="1" t="n">
         <v>-8.9</v>
       </c>
-      <c r="AF27" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AG27" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AH27" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI27" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J28" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" s="6" t="n">
         <v>12.9</v>
       </c>
-      <c r="K28" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5" t="n">
+      <c r="L28" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5" t="n">
         <v>-8.8</v>
       </c>
-      <c r="N28" s="1" t="n">
+      <c r="O28" s="1" t="n">
         <v>44.379</v>
       </c>
-      <c r="O28" s="1" t="n">
+      <c r="P28" s="1" t="n">
         <v>4.697</v>
       </c>
-      <c r="P28" s="1" t="n">
+      <c r="Q28" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="Q28" s="1" t="n">
+      <c r="R28" s="1" t="n">
         <v>-6.1</v>
       </c>
-      <c r="R28" s="1" t="n">
-        <f aca="false">MIN(T28:AE28)</f>
+      <c r="S28" s="1" t="n">
+        <f aca="false">MIN(U28:AF28)</f>
         <v>-9.8</v>
       </c>
-      <c r="S28" s="1" t="n">
-        <f aca="false">MAX(T28:AE28)</f>
+      <c r="T28" s="1" t="n">
+        <f aca="false">MAX(U28:AF28)</f>
         <v>-1.4</v>
       </c>
-      <c r="T28" s="1" t="n">
+      <c r="U28" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="U28" s="1" t="n">
+      <c r="V28" s="1" t="n">
         <v>-9.6</v>
       </c>
-      <c r="V28" s="1" t="n">
+      <c r="W28" s="1" t="n">
         <v>-8.1</v>
       </c>
-      <c r="W28" s="1" t="n">
+      <c r="X28" s="1" t="n">
         <v>-6.3</v>
       </c>
-      <c r="X28" s="1" t="n">
+      <c r="Y28" s="1" t="n">
         <v>-4.1</v>
       </c>
-      <c r="Y28" s="1" t="n">
+      <c r="Z28" s="1" t="n">
         <v>-2.8</v>
       </c>
-      <c r="Z28" s="1" t="n">
+      <c r="AA28" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="AA28" s="1" t="n">
+      <c r="AB28" s="1" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AB28" s="1" t="n">
+      <c r="AC28" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AC28" s="1" t="n">
+      <c r="AD28" s="1" t="n">
         <v>-5.3</v>
       </c>
-      <c r="AD28" s="1" t="n">
+      <c r="AE28" s="1" t="n">
         <v>-7.7</v>
       </c>
-      <c r="AE28" s="1" t="n">
+      <c r="AF28" s="1" t="n">
         <v>-8.9</v>
       </c>
-      <c r="AF28" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AG28" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AH28" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI28" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J29" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29" s="6" t="n">
         <v>23.3</v>
       </c>
-      <c r="K29" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5" t="n">
+      <c r="L29" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5" t="n">
         <v>0.9</v>
       </c>
-      <c r="N29" s="1" t="n">
+      <c r="O29" s="1" t="n">
         <v>-26.091</v>
       </c>
-      <c r="O29" s="1" t="n">
+      <c r="P29" s="1" t="n">
         <v>28.046</v>
       </c>
-      <c r="P29" s="1" t="n">
+      <c r="Q29" s="1" t="n">
         <v>1565</v>
       </c>
-      <c r="Q29" s="1" t="n">
+      <c r="R29" s="1" t="n">
         <v>-4.3</v>
       </c>
-      <c r="R29" s="1" t="n">
-        <f aca="false">MIN(T29:AE29)</f>
+      <c r="S29" s="1" t="n">
+        <f aca="false">MIN(U29:AF29)</f>
         <v>-4.3</v>
       </c>
-      <c r="S29" s="1" t="n">
-        <f aca="false">MAX(T29:AE29)</f>
+      <c r="T29" s="1" t="n">
+        <f aca="false">MAX(U29:AF29)</f>
         <v>-1.9</v>
       </c>
-      <c r="T29" s="1" t="n">
+      <c r="U29" s="1" t="n">
         <v>-3.6</v>
       </c>
-      <c r="U29" s="1" t="n">
+      <c r="V29" s="1" t="n">
         <v>-3.4</v>
       </c>
-      <c r="V29" s="1" t="n">
+      <c r="W29" s="1" t="n">
         <v>-3.7</v>
       </c>
-      <c r="W29" s="1" t="n">
+      <c r="X29" s="1" t="n">
         <v>-4</v>
       </c>
-      <c r="X29" s="1" t="n">
+      <c r="Y29" s="1" t="n">
         <v>-4.1</v>
       </c>
-      <c r="Y29" s="1" t="n">
+      <c r="Z29" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="Z29" s="1" t="n">
+      <c r="AA29" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="AA29" s="1" t="n">
+      <c r="AB29" s="1" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AB29" s="1" t="n">
+      <c r="AC29" s="1" t="n">
         <v>-3.7</v>
       </c>
-      <c r="AC29" s="1" t="n">
+      <c r="AD29" s="1" t="n">
         <v>-3.8</v>
       </c>
-      <c r="AD29" s="1" t="n">
+      <c r="AE29" s="1" t="n">
         <v>-3.6</v>
       </c>
-      <c r="AE29" s="1" t="n">
+      <c r="AF29" s="1" t="n">
         <v>-4.3</v>
       </c>
-      <c r="AF29" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AG29" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AH29" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI29" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J30" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K30" s="6" t="n">
         <v>24.3</v>
       </c>
-      <c r="K30" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5" t="n">
+      <c r="L30" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5" t="n">
         <v>0.9</v>
       </c>
-      <c r="N30" s="1" t="n">
+      <c r="O30" s="1" t="n">
         <v>-26.091</v>
       </c>
-      <c r="O30" s="1" t="n">
+      <c r="P30" s="1" t="n">
         <v>28.046</v>
       </c>
-      <c r="P30" s="1" t="n">
+      <c r="Q30" s="1" t="n">
         <v>1565</v>
       </c>
-      <c r="Q30" s="1" t="n">
+      <c r="R30" s="1" t="n">
         <v>-4.3</v>
       </c>
-      <c r="R30" s="1" t="n">
-        <f aca="false">MIN(T30:AE30)</f>
+      <c r="S30" s="1" t="n">
+        <f aca="false">MIN(U30:AF30)</f>
         <v>-4.3</v>
       </c>
-      <c r="S30" s="1" t="n">
-        <f aca="false">MAX(T30:AE30)</f>
+      <c r="T30" s="1" t="n">
+        <f aca="false">MAX(U30:AF30)</f>
         <v>-1.9</v>
       </c>
-      <c r="T30" s="1" t="n">
+      <c r="U30" s="1" t="n">
         <v>-3.6</v>
       </c>
-      <c r="U30" s="1" t="n">
+      <c r="V30" s="1" t="n">
         <v>-3.4</v>
       </c>
-      <c r="V30" s="1" t="n">
+      <c r="W30" s="1" t="n">
         <v>-3.7</v>
       </c>
-      <c r="W30" s="1" t="n">
+      <c r="X30" s="1" t="n">
         <v>-4</v>
       </c>
-      <c r="X30" s="1" t="n">
+      <c r="Y30" s="1" t="n">
         <v>-4.1</v>
       </c>
-      <c r="Y30" s="1" t="n">
+      <c r="Z30" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="Z30" s="1" t="n">
+      <c r="AA30" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="AA30" s="1" t="n">
+      <c r="AB30" s="1" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AB30" s="1" t="n">
+      <c r="AC30" s="1" t="n">
         <v>-3.7</v>
       </c>
-      <c r="AC30" s="1" t="n">
+      <c r="AD30" s="1" t="n">
         <v>-3.8</v>
       </c>
-      <c r="AD30" s="1" t="n">
+      <c r="AE30" s="1" t="n">
         <v>-3.6</v>
       </c>
-      <c r="AE30" s="1" t="n">
+      <c r="AF30" s="1" t="n">
         <v>-4.3</v>
       </c>
-      <c r="AF30" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AG30" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AH30" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI30" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L31" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M31" s="5" t="n">
         <v>-6.8</v>
       </c>
-      <c r="M31" s="5" t="n">
+      <c r="N31" s="5" t="n">
         <v>-8.8</v>
       </c>
-      <c r="N31" s="1" t="n">
+      <c r="O31" s="1" t="n">
         <v>44.379</v>
       </c>
-      <c r="O31" s="1" t="n">
+      <c r="P31" s="1" t="n">
         <v>4.697</v>
       </c>
-      <c r="P31" s="1" t="n">
+      <c r="Q31" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="Q31" s="1" t="n">
+      <c r="R31" s="1" t="n">
         <v>-6.1</v>
       </c>
-      <c r="R31" s="1" t="n">
-        <f aca="false">MIN(T31:AE31)</f>
+      <c r="S31" s="1" t="n">
+        <f aca="false">MIN(U31:AF31)</f>
         <v>-9.8</v>
       </c>
-      <c r="S31" s="1" t="n">
-        <f aca="false">MAX(T31:AE31)</f>
+      <c r="T31" s="1" t="n">
+        <f aca="false">MAX(U31:AF31)</f>
         <v>-1.4</v>
       </c>
-      <c r="T31" s="1" t="n">
+      <c r="U31" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="U31" s="1" t="n">
+      <c r="V31" s="1" t="n">
         <v>-9.6</v>
       </c>
-      <c r="V31" s="1" t="n">
+      <c r="W31" s="1" t="n">
         <v>-8.1</v>
       </c>
-      <c r="W31" s="1" t="n">
+      <c r="X31" s="1" t="n">
         <v>-6.3</v>
       </c>
-      <c r="X31" s="1" t="n">
+      <c r="Y31" s="1" t="n">
         <v>-4.1</v>
       </c>
-      <c r="Y31" s="1" t="n">
+      <c r="Z31" s="1" t="n">
         <v>-2.8</v>
       </c>
-      <c r="Z31" s="1" t="n">
+      <c r="AA31" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="AA31" s="1" t="n">
+      <c r="AB31" s="1" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AB31" s="1" t="n">
+      <c r="AC31" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AC31" s="1" t="n">
+      <c r="AD31" s="1" t="n">
         <v>-5.3</v>
       </c>
-      <c r="AD31" s="1" t="n">
+      <c r="AE31" s="1" t="n">
         <v>-7.7</v>
       </c>
-      <c r="AE31" s="1" t="n">
+      <c r="AF31" s="1" t="n">
         <v>-8.9</v>
       </c>
-      <c r="AF31" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AG31" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AH31" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI31" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L32" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M32" s="5" t="n">
         <v>-7.1</v>
       </c>
-      <c r="M32" s="5" t="n">
+      <c r="N32" s="5" t="n">
         <v>-8.8</v>
       </c>
-      <c r="N32" s="1" t="n">
+      <c r="O32" s="1" t="n">
         <v>44.379</v>
       </c>
-      <c r="O32" s="1" t="n">
+      <c r="P32" s="1" t="n">
         <v>4.697</v>
       </c>
-      <c r="P32" s="1" t="n">
+      <c r="Q32" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="Q32" s="1" t="n">
+      <c r="R32" s="1" t="n">
         <v>-6.1</v>
       </c>
-      <c r="R32" s="1" t="n">
-        <f aca="false">MIN(T32:AE32)</f>
+      <c r="S32" s="1" t="n">
+        <f aca="false">MIN(U32:AF32)</f>
         <v>-9.8</v>
       </c>
-      <c r="S32" s="1" t="n">
-        <f aca="false">MAX(T32:AE32)</f>
+      <c r="T32" s="1" t="n">
+        <f aca="false">MAX(U32:AF32)</f>
         <v>-1.4</v>
       </c>
-      <c r="T32" s="1" t="n">
+      <c r="U32" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="U32" s="1" t="n">
+      <c r="V32" s="1" t="n">
         <v>-9.6</v>
       </c>
-      <c r="V32" s="1" t="n">
+      <c r="W32" s="1" t="n">
         <v>-8.1</v>
       </c>
-      <c r="W32" s="1" t="n">
+      <c r="X32" s="1" t="n">
         <v>-6.3</v>
       </c>
-      <c r="X32" s="1" t="n">
+      <c r="Y32" s="1" t="n">
         <v>-4.1</v>
       </c>
-      <c r="Y32" s="1" t="n">
+      <c r="Z32" s="1" t="n">
         <v>-2.8</v>
       </c>
-      <c r="Z32" s="1" t="n">
+      <c r="AA32" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="AA32" s="1" t="n">
+      <c r="AB32" s="1" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AB32" s="1" t="n">
+      <c r="AC32" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AC32" s="1" t="n">
+      <c r="AD32" s="1" t="n">
         <v>-5.3</v>
       </c>
-      <c r="AD32" s="1" t="n">
+      <c r="AE32" s="1" t="n">
         <v>-7.7</v>
       </c>
-      <c r="AE32" s="1" t="n">
+      <c r="AF32" s="1" t="n">
         <v>-8.9</v>
       </c>
-      <c r="AF32" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AG32" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AH32" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI32" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L33" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M33" s="5" t="n">
         <v>-7.5</v>
       </c>
-      <c r="M33" s="5" t="n">
+      <c r="N33" s="5" t="n">
         <v>-8.8</v>
       </c>
-      <c r="N33" s="1" t="n">
+      <c r="O33" s="1" t="n">
         <v>44.379</v>
       </c>
-      <c r="O33" s="1" t="n">
+      <c r="P33" s="1" t="n">
         <v>4.697</v>
       </c>
-      <c r="P33" s="1" t="n">
+      <c r="Q33" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="Q33" s="1" t="n">
+      <c r="R33" s="1" t="n">
         <v>-6.1</v>
       </c>
-      <c r="R33" s="1" t="n">
-        <f aca="false">MIN(T33:AE33)</f>
+      <c r="S33" s="1" t="n">
+        <f aca="false">MIN(U33:AF33)</f>
         <v>-9.8</v>
       </c>
-      <c r="S33" s="1" t="n">
-        <f aca="false">MAX(T33:AE33)</f>
+      <c r="T33" s="1" t="n">
+        <f aca="false">MAX(U33:AF33)</f>
         <v>-1.4</v>
       </c>
-      <c r="T33" s="1" t="n">
+      <c r="U33" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="U33" s="1" t="n">
+      <c r="V33" s="1" t="n">
         <v>-9.6</v>
       </c>
-      <c r="V33" s="1" t="n">
+      <c r="W33" s="1" t="n">
         <v>-8.1</v>
       </c>
-      <c r="W33" s="1" t="n">
+      <c r="X33" s="1" t="n">
         <v>-6.3</v>
       </c>
-      <c r="X33" s="1" t="n">
+      <c r="Y33" s="1" t="n">
         <v>-4.1</v>
       </c>
-      <c r="Y33" s="1" t="n">
+      <c r="Z33" s="1" t="n">
         <v>-2.8</v>
       </c>
-      <c r="Z33" s="1" t="n">
+      <c r="AA33" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="AA33" s="1" t="n">
+      <c r="AB33" s="1" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AB33" s="1" t="n">
+      <c r="AC33" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AC33" s="1" t="n">
+      <c r="AD33" s="1" t="n">
         <v>-5.3</v>
       </c>
-      <c r="AD33" s="1" t="n">
+      <c r="AE33" s="1" t="n">
         <v>-7.7</v>
       </c>
-      <c r="AE33" s="1" t="n">
+      <c r="AF33" s="1" t="n">
         <v>-8.9</v>
       </c>
-      <c r="AF33" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AG33" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AH33" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI33" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="F34" s="5" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L34" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M34" s="5" t="n">
         <v>-7.2</v>
       </c>
-      <c r="M34" s="5" t="n">
+      <c r="N34" s="5" t="n">
         <v>-8.8</v>
       </c>
-      <c r="N34" s="1" t="n">
+      <c r="O34" s="1" t="n">
         <v>44.379</v>
       </c>
-      <c r="O34" s="1" t="n">
+      <c r="P34" s="1" t="n">
         <v>4.697</v>
       </c>
-      <c r="P34" s="1" t="n">
+      <c r="Q34" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="Q34" s="1" t="n">
+      <c r="R34" s="1" t="n">
         <v>-6.1</v>
       </c>
-      <c r="R34" s="1" t="n">
-        <f aca="false">MIN(T34:AE34)</f>
+      <c r="S34" s="1" t="n">
+        <f aca="false">MIN(U34:AF34)</f>
         <v>-9.8</v>
       </c>
-      <c r="S34" s="1" t="n">
-        <f aca="false">MAX(T34:AE34)</f>
+      <c r="T34" s="1" t="n">
+        <f aca="false">MAX(U34:AF34)</f>
         <v>-1.4</v>
       </c>
-      <c r="T34" s="1" t="n">
+      <c r="U34" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="U34" s="1" t="n">
+      <c r="V34" s="1" t="n">
         <v>-9.6</v>
       </c>
-      <c r="V34" s="1" t="n">
+      <c r="W34" s="1" t="n">
         <v>-8.1</v>
       </c>
-      <c r="W34" s="1" t="n">
+      <c r="X34" s="1" t="n">
         <v>-6.3</v>
       </c>
-      <c r="X34" s="1" t="n">
+      <c r="Y34" s="1" t="n">
         <v>-4.1</v>
       </c>
-      <c r="Y34" s="1" t="n">
+      <c r="Z34" s="1" t="n">
         <v>-2.8</v>
       </c>
-      <c r="Z34" s="1" t="n">
+      <c r="AA34" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="AA34" s="1" t="n">
+      <c r="AB34" s="1" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AB34" s="1" t="n">
+      <c r="AC34" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AC34" s="1" t="n">
+      <c r="AD34" s="1" t="n">
         <v>-5.3</v>
       </c>
-      <c r="AD34" s="1" t="n">
+      <c r="AE34" s="1" t="n">
         <v>-7.7</v>
       </c>
-      <c r="AE34" s="1" t="n">
+      <c r="AF34" s="1" t="n">
         <v>-8.9</v>
       </c>
-      <c r="AF34" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AG34" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AH34" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI34" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L35" s="5" t="n">
+      <c r="M35" s="5" t="n">
         <v>-6.8</v>
       </c>
-      <c r="M35" s="5" t="n">
+      <c r="N35" s="5" t="n">
         <v>-6.2</v>
       </c>
-      <c r="N35" s="1" t="n">
+      <c r="O35" s="1" t="n">
         <v>44.379</v>
       </c>
-      <c r="O35" s="1" t="n">
+      <c r="P35" s="1" t="n">
         <v>4.697</v>
       </c>
-      <c r="P35" s="1" t="n">
+      <c r="Q35" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="Q35" s="1" t="n">
+      <c r="R35" s="1" t="n">
         <v>-6.1</v>
       </c>
-      <c r="R35" s="1" t="n">
-        <f aca="false">MIN(T35:AE35)</f>
+      <c r="S35" s="1" t="n">
+        <f aca="false">MIN(U35:AF35)</f>
         <v>-9.8</v>
       </c>
-      <c r="S35" s="1" t="n">
-        <f aca="false">MAX(T35:AE35)</f>
+      <c r="T35" s="1" t="n">
+        <f aca="false">MAX(U35:AF35)</f>
         <v>-1.4</v>
       </c>
-      <c r="T35" s="1" t="n">
+      <c r="U35" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="U35" s="1" t="n">
+      <c r="V35" s="1" t="n">
         <v>-9.6</v>
       </c>
-      <c r="V35" s="1" t="n">
+      <c r="W35" s="1" t="n">
         <v>-8.1</v>
       </c>
-      <c r="W35" s="1" t="n">
+      <c r="X35" s="1" t="n">
         <v>-6.3</v>
       </c>
-      <c r="X35" s="1" t="n">
+      <c r="Y35" s="1" t="n">
         <v>-4.1</v>
       </c>
-      <c r="Y35" s="1" t="n">
+      <c r="Z35" s="1" t="n">
         <v>-2.8</v>
       </c>
-      <c r="Z35" s="1" t="n">
+      <c r="AA35" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="AA35" s="1" t="n">
+      <c r="AB35" s="1" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AB35" s="1" t="n">
+      <c r="AC35" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AC35" s="1" t="n">
+      <c r="AD35" s="1" t="n">
         <v>-5.3</v>
       </c>
-      <c r="AD35" s="1" t="n">
+      <c r="AE35" s="1" t="n">
         <v>-7.7</v>
       </c>
-      <c r="AE35" s="1" t="n">
+      <c r="AF35" s="1" t="n">
         <v>-8.9</v>
       </c>
-      <c r="AF35" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AG35" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AH35" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI35" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L36" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M36" s="5" t="n">
         <v>-5.4</v>
       </c>
-      <c r="M36" s="5" t="n">
+      <c r="N36" s="5" t="n">
         <v>-6.2</v>
       </c>
-      <c r="N36" s="1" t="n">
+      <c r="O36" s="1" t="n">
         <v>44.379</v>
       </c>
-      <c r="O36" s="1" t="n">
+      <c r="P36" s="1" t="n">
         <v>4.697</v>
       </c>
-      <c r="P36" s="1" t="n">
+      <c r="Q36" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="Q36" s="1" t="n">
+      <c r="R36" s="1" t="n">
         <v>-6.1</v>
       </c>
-      <c r="R36" s="1" t="n">
-        <f aca="false">MIN(T36:AE36)</f>
+      <c r="S36" s="1" t="n">
+        <f aca="false">MIN(U36:AF36)</f>
         <v>-9.8</v>
       </c>
-      <c r="S36" s="1" t="n">
-        <f aca="false">MAX(T36:AE36)</f>
+      <c r="T36" s="1" t="n">
+        <f aca="false">MAX(U36:AF36)</f>
         <v>-1.4</v>
       </c>
-      <c r="T36" s="1" t="n">
+      <c r="U36" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="U36" s="1" t="n">
+      <c r="V36" s="1" t="n">
         <v>-9.6</v>
       </c>
-      <c r="V36" s="1" t="n">
+      <c r="W36" s="1" t="n">
         <v>-8.1</v>
       </c>
-      <c r="W36" s="1" t="n">
+      <c r="X36" s="1" t="n">
         <v>-6.3</v>
       </c>
-      <c r="X36" s="1" t="n">
+      <c r="Y36" s="1" t="n">
         <v>-4.1</v>
       </c>
-      <c r="Y36" s="1" t="n">
+      <c r="Z36" s="1" t="n">
         <v>-2.8</v>
       </c>
-      <c r="Z36" s="1" t="n">
+      <c r="AA36" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="AA36" s="1" t="n">
+      <c r="AB36" s="1" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AB36" s="1" t="n">
+      <c r="AC36" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AC36" s="1" t="n">
+      <c r="AD36" s="1" t="n">
         <v>-5.3</v>
       </c>
-      <c r="AD36" s="1" t="n">
+      <c r="AE36" s="1" t="n">
         <v>-7.7</v>
       </c>
-      <c r="AE36" s="1" t="n">
+      <c r="AF36" s="1" t="n">
         <v>-8.9</v>
       </c>
-      <c r="AF36" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AG36" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AH36" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI36" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L37" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M37" s="5" t="n">
         <v>-6.4</v>
       </c>
-      <c r="M37" s="5" t="n">
+      <c r="N37" s="5" t="n">
         <v>-6.2</v>
       </c>
-      <c r="N37" s="1" t="n">
+      <c r="O37" s="1" t="n">
         <v>44.379</v>
       </c>
-      <c r="O37" s="1" t="n">
+      <c r="P37" s="1" t="n">
         <v>4.697</v>
       </c>
-      <c r="P37" s="1" t="n">
+      <c r="Q37" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="Q37" s="1" t="n">
+      <c r="R37" s="1" t="n">
         <v>-6.1</v>
       </c>
-      <c r="R37" s="1" t="n">
-        <f aca="false">MIN(T37:AE37)</f>
+      <c r="S37" s="1" t="n">
+        <f aca="false">MIN(U37:AF37)</f>
         <v>-9.8</v>
       </c>
-      <c r="S37" s="1" t="n">
-        <f aca="false">MAX(T37:AE37)</f>
+      <c r="T37" s="1" t="n">
+        <f aca="false">MAX(U37:AF37)</f>
         <v>-1.4</v>
       </c>
-      <c r="T37" s="1" t="n">
+      <c r="U37" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="U37" s="1" t="n">
+      <c r="V37" s="1" t="n">
         <v>-9.6</v>
       </c>
-      <c r="V37" s="1" t="n">
+      <c r="W37" s="1" t="n">
         <v>-8.1</v>
       </c>
-      <c r="W37" s="1" t="n">
+      <c r="X37" s="1" t="n">
         <v>-6.3</v>
       </c>
-      <c r="X37" s="1" t="n">
+      <c r="Y37" s="1" t="n">
         <v>-4.1</v>
       </c>
-      <c r="Y37" s="1" t="n">
+      <c r="Z37" s="1" t="n">
         <v>-2.8</v>
       </c>
-      <c r="Z37" s="1" t="n">
+      <c r="AA37" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="AA37" s="1" t="n">
+      <c r="AB37" s="1" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AB37" s="1" t="n">
+      <c r="AC37" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AC37" s="1" t="n">
+      <c r="AD37" s="1" t="n">
         <v>-5.3</v>
       </c>
-      <c r="AD37" s="1" t="n">
+      <c r="AE37" s="1" t="n">
         <v>-7.7</v>
       </c>
-      <c r="AE37" s="1" t="n">
+      <c r="AF37" s="1" t="n">
         <v>-8.9</v>
       </c>
-      <c r="AF37" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AG37" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AH37" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI37" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
       <c r="B38" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J38" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K38" s="7" t="n">
         <v>19.2</v>
       </c>
-      <c r="K38" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5" t="n">
+      <c r="L38" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5" t="n">
         <v>-3.6</v>
       </c>
-      <c r="N38" s="5" t="n">
+      <c r="O38" s="5" t="n">
         <v>27.348</v>
       </c>
-      <c r="O38" s="5" t="n">
+      <c r="P38" s="5" t="n">
         <v>-80.899</v>
       </c>
-      <c r="P38" s="1" t="n">
+      <c r="Q38" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q38" s="1" t="n">
+      <c r="R38" s="1" t="n">
         <v>-2.7</v>
       </c>
-      <c r="R38" s="1" t="n">
-        <f aca="false">MIN(T38:AE38)</f>
+      <c r="S38" s="1" t="n">
+        <f aca="false">MIN(U38:AF38)</f>
         <v>-3.6</v>
       </c>
-      <c r="S38" s="1" t="n">
-        <f aca="false">MAX(T38:AE38)</f>
+      <c r="T38" s="1" t="n">
+        <f aca="false">MAX(U38:AF38)</f>
         <v>-0.6</v>
       </c>
-      <c r="T38" s="1" t="n">
+      <c r="U38" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="U38" s="1" t="n">
+      <c r="V38" s="1" t="n">
         <v>-3.6</v>
       </c>
-      <c r="V38" s="1" t="n">
+      <c r="W38" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="W38" s="1" t="n">
+      <c r="X38" s="1" t="n">
         <v>-2.3</v>
       </c>
-      <c r="X38" s="1" t="n">
+      <c r="Y38" s="1" t="n">
         <v>-1.9</v>
       </c>
-      <c r="Y38" s="1" t="n">
+      <c r="Z38" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="Z38" s="1" t="n">
+      <c r="AA38" s="1" t="n">
         <v>-0.6</v>
       </c>
-      <c r="AA38" s="1" t="n">
+      <c r="AB38" s="1" t="n">
         <v>-0.7</v>
       </c>
-      <c r="AB38" s="1" t="n">
+      <c r="AC38" s="1" t="n">
         <v>-1.3</v>
       </c>
-      <c r="AC38" s="1" t="n">
+      <c r="AD38" s="1" t="n">
         <v>-2.9</v>
       </c>
-      <c r="AD38" s="1" t="n">
+      <c r="AE38" s="1" t="n">
         <v>-2</v>
       </c>
-      <c r="AE38" s="1" t="n">
+      <c r="AF38" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AF38" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="AG38" s="1" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="AH38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI38" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
       <c r="B39" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="J39" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K39" s="7" t="n">
         <v>21.1</v>
       </c>
-      <c r="K39" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5" t="n">
+      <c r="L39" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5" t="n">
         <v>-3.7</v>
       </c>
-      <c r="N39" s="5" t="n">
+      <c r="O39" s="5" t="n">
         <v>30.343</v>
       </c>
-      <c r="O39" s="5" t="n">
+      <c r="P39" s="5" t="n">
         <v>-81.656</v>
       </c>
-      <c r="P39" s="1" t="n">
+      <c r="Q39" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q39" s="1" t="n">
+      <c r="R39" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="R39" s="1" t="n">
-        <f aca="false">MIN(T39:AE39)</f>
+      <c r="S39" s="1" t="n">
+        <f aca="false">MIN(U39:AF39)</f>
         <v>-5.1</v>
       </c>
-      <c r="S39" s="1" t="n">
-        <f aca="false">MAX(T39:AE39)</f>
+      <c r="T39" s="1" t="n">
+        <f aca="false">MAX(U39:AF39)</f>
         <v>-0.8</v>
-      </c>
-      <c r="T39" s="1" t="n">
-        <v>-5</v>
       </c>
       <c r="U39" s="1" t="n">
         <v>-5</v>
       </c>
       <c r="V39" s="1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="W39" s="1" t="n">
         <v>-5.1</v>
       </c>
-      <c r="W39" s="1" t="n">
+      <c r="X39" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="X39" s="1" t="n">
+      <c r="Y39" s="1" t="n">
         <v>-1.7</v>
       </c>
-      <c r="Y39" s="1" t="n">
+      <c r="Z39" s="1" t="n">
         <v>-1.6</v>
       </c>
-      <c r="Z39" s="1" t="n">
+      <c r="AA39" s="1" t="n">
         <v>-0.8</v>
       </c>
-      <c r="AA39" s="1" t="n">
+      <c r="AB39" s="1" t="n">
         <v>-1.2</v>
       </c>
-      <c r="AB39" s="1" t="n">
+      <c r="AC39" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="AC39" s="1" t="n">
+      <c r="AD39" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="AD39" s="1" t="n">
+      <c r="AE39" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AE39" s="1" t="n">
+      <c r="AF39" s="1" t="n">
         <v>-4.6</v>
       </c>
-      <c r="AF39" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="AG39" s="1" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="AH39" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI39" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5"/>
       <c r="B40" s="5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I40" s="5"/>
-      <c r="J40" s="7" t="n">
+        <v>42</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J40" s="5"/>
+      <c r="K40" s="7" t="n">
         <v>19.4</v>
       </c>
-      <c r="K40" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5" t="n">
+      <c r="L40" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5" t="n">
         <v>-4.5</v>
       </c>
-      <c r="N40" s="5" t="n">
+      <c r="O40" s="5" t="n">
         <v>2.902</v>
       </c>
-      <c r="O40" s="5" t="n">
+      <c r="P40" s="5" t="n">
         <v>18.502</v>
       </c>
-      <c r="Q40" s="7" t="n">
-        <f aca="false">AVERAGE(T40:AE40)</f>
+      <c r="R40" s="7" t="n">
+        <f aca="false">AVERAGE(U40:AF40)</f>
         <v>-0.696762142255892</v>
       </c>
-      <c r="R40" s="7" t="n">
-        <f aca="false">MIN(T40:AE40)</f>
+      <c r="S40" s="7" t="n">
+        <f aca="false">MIN(U40:AF40)</f>
         <v>-2.2274</v>
       </c>
-      <c r="S40" s="7" t="n">
-        <f aca="false">MAX(T40:AE40)</f>
+      <c r="T40" s="7" t="n">
+        <f aca="false">MAX(U40:AF40)</f>
         <v>1.1315</v>
       </c>
-      <c r="T40" s="7" t="n">
+      <c r="U40" s="7" t="n">
         <v>0.387125</v>
       </c>
-      <c r="U40" s="7" t="n">
+      <c r="V40" s="7" t="n">
         <v>0.177222222222222</v>
       </c>
-      <c r="V40" s="7" t="n">
+      <c r="W40" s="7" t="n">
         <v>1.1315</v>
       </c>
-      <c r="W40" s="7" t="n">
+      <c r="X40" s="7" t="n">
         <v>1.0046</v>
       </c>
-      <c r="X40" s="7" t="n">
+      <c r="Y40" s="7" t="n">
         <v>-0.729375</v>
       </c>
-      <c r="Y40" s="7" t="n">
+      <c r="Z40" s="7" t="n">
         <v>-1.16333333333333</v>
       </c>
-      <c r="Z40" s="7" t="n">
+      <c r="AA40" s="7" t="n">
         <v>-1.099875</v>
       </c>
-      <c r="AA40" s="7" t="n">
+      <c r="AB40" s="7" t="n">
         <v>-1.79777777777778</v>
       </c>
-      <c r="AB40" s="7" t="n">
+      <c r="AC40" s="7" t="n">
         <v>-2.2274</v>
       </c>
-      <c r="AC40" s="7" t="n">
+      <c r="AD40" s="7" t="n">
         <v>-1.60475</v>
       </c>
-      <c r="AD40" s="7" t="n">
+      <c r="AE40" s="7" t="n">
         <v>-1.4849</v>
       </c>
-      <c r="AE40" s="7" t="n">
+      <c r="AF40" s="7" t="n">
         <v>-0.954181818181818</v>
       </c>
-      <c r="AF40" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="AG40" s="1" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="AH40" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI40" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>37</v>
+        <v>71</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>40</v>
+        <v>125</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J41" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K41" s="1" t="n">
         <v>17.4</v>
       </c>
-      <c r="K41" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M41" s="1" t="n">
+      <c r="L41" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N41" s="1" t="n">
         <v>-5</v>
       </c>
-      <c r="N41" s="5" t="n">
+      <c r="O41" s="5" t="n">
         <v>30.343</v>
       </c>
-      <c r="O41" s="5" t="n">
+      <c r="P41" s="5" t="n">
         <v>-81.656</v>
       </c>
-      <c r="P41" s="1" t="n">
+      <c r="Q41" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q41" s="1" t="n">
+      <c r="R41" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="R41" s="1" t="n">
-        <f aca="false">MIN(T41:AE41)</f>
+      <c r="S41" s="1" t="n">
+        <f aca="false">MIN(U41:AF41)</f>
         <v>-5.1</v>
       </c>
-      <c r="S41" s="1" t="n">
-        <f aca="false">MAX(T41:AE41)</f>
+      <c r="T41" s="1" t="n">
+        <f aca="false">MAX(U41:AF41)</f>
         <v>-0.8</v>
-      </c>
-      <c r="T41" s="1" t="n">
-        <v>-5</v>
       </c>
       <c r="U41" s="1" t="n">
         <v>-5</v>
       </c>
       <c r="V41" s="1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="W41" s="1" t="n">
         <v>-5.1</v>
       </c>
-      <c r="W41" s="1" t="n">
+      <c r="X41" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="X41" s="1" t="n">
+      <c r="Y41" s="1" t="n">
         <v>-1.7</v>
       </c>
-      <c r="Y41" s="1" t="n">
+      <c r="Z41" s="1" t="n">
         <v>-1.6</v>
       </c>
-      <c r="Z41" s="1" t="n">
+      <c r="AA41" s="1" t="n">
         <v>-0.8</v>
       </c>
-      <c r="AA41" s="1" t="n">
+      <c r="AB41" s="1" t="n">
         <v>-1.2</v>
       </c>
-      <c r="AB41" s="1" t="n">
+      <c r="AC41" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="AC41" s="1" t="n">
+      <c r="AD41" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="AD41" s="1" t="n">
+      <c r="AE41" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AE41" s="1" t="n">
+      <c r="AF41" s="1" t="n">
         <v>-4.6</v>
       </c>
-      <c r="AF41" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="AG41" s="1" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="AH41" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI41" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>40</v>
+      <c r="D42" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J42" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K42" s="1" t="n">
         <v>20.1</v>
       </c>
-      <c r="K42" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M42" s="1" t="n">
+      <c r="L42" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N42" s="1" t="n">
         <v>-2.6</v>
       </c>
-      <c r="N42" s="1" t="n">
+      <c r="O42" s="1" t="n">
         <v>21.555</v>
       </c>
-      <c r="O42" s="1" t="n">
+      <c r="P42" s="1" t="n">
         <v>-77.783</v>
       </c>
-      <c r="P42" s="1" t="n">
+      <c r="Q42" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q42" s="1" t="n">
+      <c r="R42" s="1" t="n">
         <v>-2.1</v>
       </c>
-      <c r="R42" s="1" t="n">
-        <f aca="false">MIN(T42:AE42)</f>
+      <c r="S42" s="1" t="n">
+        <f aca="false">MIN(U42:AF42)</f>
         <v>-2.4</v>
       </c>
-      <c r="S42" s="1" t="n">
-        <f aca="false">MAX(T42:AE42)</f>
+      <c r="T42" s="1" t="n">
+        <f aca="false">MAX(U42:AF42)</f>
         <v>-0.1</v>
       </c>
-      <c r="T42" s="1" t="n">
+      <c r="U42" s="1" t="n">
         <v>-1.9</v>
       </c>
-      <c r="U42" s="1" t="n">
+      <c r="V42" s="1" t="n">
         <v>-2</v>
       </c>
-      <c r="V42" s="1" t="n">
+      <c r="W42" s="1" t="n">
         <v>-1.7</v>
       </c>
-      <c r="W42" s="1" t="n">
+      <c r="X42" s="1" t="n">
         <v>-1.3</v>
       </c>
-      <c r="X42" s="1" t="n">
+      <c r="Y42" s="1" t="n">
         <v>-1.7</v>
       </c>
-      <c r="Y42" s="1" t="n">
+      <c r="Z42" s="1" t="n">
         <v>-1.4</v>
       </c>
-      <c r="Z42" s="1" t="n">
+      <c r="AA42" s="1" t="n">
         <v>-0.3</v>
       </c>
-      <c r="AA42" s="1" t="n">
+      <c r="AB42" s="1" t="n">
         <v>-0.1</v>
       </c>
-      <c r="AB42" s="1" t="n">
+      <c r="AC42" s="1" t="n">
         <v>-1.1</v>
       </c>
-      <c r="AC42" s="1" t="n">
+      <c r="AD42" s="1" t="n">
         <v>-2.4</v>
       </c>
-      <c r="AD42" s="1" t="n">
+      <c r="AE42" s="1" t="n">
         <v>-1.2</v>
       </c>
-      <c r="AE42" s="1" t="n">
+      <c r="AF42" s="1" t="n">
         <v>-1.5</v>
       </c>
-      <c r="AF42" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="AG42" s="1" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="AH42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI42" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="D43" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="E43" s="1" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>40</v>
+        <v>131</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K43" s="1" t="n">
         <v>15.3</v>
       </c>
-      <c r="K43" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="M43" s="1" t="n">
+      <c r="L43" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="N43" s="1" t="n">
         <v>-5.2</v>
       </c>
-      <c r="N43" s="1" t="n">
+      <c r="O43" s="1" t="n">
         <v>32.318</v>
       </c>
-      <c r="O43" s="1" t="n">
+      <c r="P43" s="1" t="n">
         <v>35.57</v>
       </c>
-      <c r="P43" s="1" t="n">
+      <c r="Q43" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q43" s="1" t="n">
+      <c r="R43" s="1" t="n">
         <v>-4.6</v>
       </c>
-      <c r="R43" s="1" t="n">
-        <f aca="false">MIN(T43:AE43)</f>
+      <c r="S43" s="1" t="n">
+        <f aca="false">MIN(U43:AF43)</f>
         <v>-6.6</v>
       </c>
-      <c r="S43" s="1" t="n">
-        <f aca="false">MAX(T43:AE43)</f>
+      <c r="T43" s="1" t="n">
+        <f aca="false">MAX(U43:AF43)</f>
         <v>1</v>
       </c>
-      <c r="T43" s="1" t="n">
+      <c r="U43" s="1" t="n">
         <v>-6.6</v>
-      </c>
-      <c r="U43" s="1" t="n">
-        <v>-5.7</v>
       </c>
       <c r="V43" s="1" t="n">
         <v>-5.7</v>
       </c>
       <c r="W43" s="1" t="n">
+        <v>-5.7</v>
+      </c>
+      <c r="X43" s="1" t="n">
         <v>-3.6</v>
       </c>
-      <c r="X43" s="1" t="n">
+      <c r="Y43" s="1" t="n">
         <v>-2.3</v>
       </c>
-      <c r="Y43" s="1" t="n">
+      <c r="Z43" s="1" t="n">
         <v>-1.1</v>
       </c>
-      <c r="Z43" s="1" t="n">
+      <c r="AA43" s="1" t="n">
         <v>-0.9</v>
       </c>
-      <c r="AA43" s="1" t="n">
+      <c r="AB43" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="AB43" s="1" t="n">
+      <c r="AC43" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AC43" s="1" t="n">
+      <c r="AD43" s="1" t="n">
         <v>-1.3</v>
       </c>
-      <c r="AD43" s="1" t="n">
+      <c r="AE43" s="1" t="n">
         <v>-3.2</v>
       </c>
-      <c r="AE43" s="1" t="n">
+      <c r="AF43" s="1" t="n">
         <v>-5</v>
       </c>
-      <c r="AF43" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="AG43" s="1" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="AH43" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="AI43" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
